--- a/Summary_priors_nopriors.xlsx
+++ b/Summary_priors_nopriors.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selen\Documents\GitHub\2019GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866486B3-F291-4149-9F18-776CC7D34F63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4D387-FF4C-4AD4-9C4A-00FA9F91FD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoPriors" sheetId="2" r:id="rId1"/>
-    <sheet name="Inputs " sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Inputs " sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NoPriors!$O$2:$T$146</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="58">
   <si>
     <t>Adjusted</t>
   </si>
@@ -168,6 +169,48 @@
   <si>
     <t xml:space="preserve">Difference </t>
   </si>
+  <si>
+    <t>B_est</t>
+  </si>
+  <si>
+    <t>C_est</t>
+  </si>
+  <si>
+    <t>B_est_p</t>
+  </si>
+  <si>
+    <t>C_est_p</t>
+  </si>
+  <si>
+    <t>PV_est_p</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>BAU_C_est</t>
+  </si>
+  <si>
+    <t>C_est_cum</t>
+  </si>
+  <si>
+    <t>BAU_C_est_cum</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Year_cross</t>
+  </si>
+  <si>
+    <t>Payoff</t>
+  </si>
+  <si>
+    <t>Year_payoff</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +219,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -333,6 +376,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,7 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -629,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D07B50-1306-4869-9F9D-BC9ABA5F3725}">
   <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,28 +695,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="O1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -778,13 +821,13 @@
       <c r="Q3" s="1">
         <v>0.5</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="22">
         <v>2992.0500999999999</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="22">
         <v>478.74590000000001</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="22">
         <v>110.03248000000001</v>
       </c>
     </row>
@@ -835,13 +878,13 @@
       <c r="Q4" s="1">
         <v>0.5</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="22">
         <v>2939.0657000000001</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="22">
         <v>485.56110000000001</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="22">
         <v>114.19195999999999</v>
       </c>
     </row>
@@ -892,13 +935,13 @@
       <c r="Q5" s="1">
         <v>0.5</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="22">
         <v>2859.1502999999998</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="22">
         <v>502.44580000000002</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="22">
         <v>133.01379</v>
       </c>
     </row>
@@ -949,13 +992,13 @@
       <c r="Q6" s="1">
         <v>0.5</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="22">
         <v>2743.3894</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="22">
         <v>515.26819999999998</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="22">
         <v>150.13041999999999</v>
       </c>
     </row>
@@ -1006,13 +1049,13 @@
       <c r="Q7" s="1">
         <v>0.5</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="22">
         <v>2703.7842999999998</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="22">
         <v>487.27690000000001</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="22">
         <v>72.872299999999996</v>
       </c>
     </row>
@@ -1063,13 +1106,13 @@
       <c r="Q8" s="1">
         <v>0.5</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="22">
         <v>2553.7467000000001</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="22">
         <v>482.4477</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="22">
         <v>58.198909999999998</v>
       </c>
     </row>
@@ -1120,13 +1163,13 @@
       <c r="Q9" s="1">
         <v>0.5</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="22">
         <v>2552.3890999999999</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="22">
         <v>435.41649999999998</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="22">
         <v>96.212689999999995</v>
       </c>
     </row>
@@ -1177,13 +1220,13 @@
       <c r="Q10" s="1">
         <v>0.3</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="22">
         <v>2535.6480999999999</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="22">
         <v>656.14779999999996</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="22">
         <v>151.09139999999999</v>
       </c>
     </row>
@@ -1234,13 +1277,13 @@
       <c r="Q11" s="1">
         <v>0.3</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="22">
         <v>2502.7718</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="22">
         <v>655.80930000000001</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="22">
         <v>150.71038999999999</v>
       </c>
     </row>
@@ -1291,13 +1334,13 @@
       <c r="Q12" s="1">
         <v>0.5</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="22">
         <v>2482.4562000000001</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="22">
         <v>440.9522</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="22">
         <v>97.966399999999993</v>
       </c>
     </row>
@@ -1348,13 +1391,13 @@
       <c r="Q13" s="1">
         <v>0.4</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="22">
         <v>2468.7779</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="22">
         <v>386.53980000000001</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="22">
         <v>116.04312</v>
       </c>
     </row>
@@ -1405,13 +1448,13 @@
       <c r="Q14" s="1">
         <v>0.3</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="22">
         <v>2453.7494000000002</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="22">
         <v>656.92589999999996</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="22">
         <v>158.94479000000001</v>
       </c>
     </row>
@@ -1462,13 +1505,13 @@
       <c r="Q15" s="1">
         <v>0.4</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="22">
         <v>2433.3806</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="22">
         <v>394.2561</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="22">
         <v>120.36578</v>
       </c>
     </row>
@@ -1519,13 +1562,13 @@
       <c r="Q16" s="1">
         <v>0.5</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="22">
         <v>2418.8676999999998</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="22">
         <v>479.1155</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="22">
         <v>56.091619999999999</v>
       </c>
     </row>
@@ -1576,13 +1619,13 @@
       <c r="Q17" s="1">
         <v>0.5</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="22">
         <v>2410.7532000000001</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="22">
         <v>437.13409999999999</v>
       </c>
-      <c r="T17" s="26">
+      <c r="T17" s="22">
         <v>70.533550000000005</v>
       </c>
     </row>
@@ -1633,13 +1676,13 @@
       <c r="Q18" s="1">
         <v>0.5</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="22">
         <v>2389.4479999999999</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="22">
         <v>451.6277</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18" s="22">
         <v>112.17452</v>
       </c>
     </row>
@@ -1690,13 +1733,13 @@
       <c r="Q19" s="1">
         <v>0.3</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="22">
         <v>2382.328</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="22">
         <v>648.57510000000002</v>
       </c>
-      <c r="T19" s="26">
+      <c r="T19" s="22">
         <v>165.74940000000001</v>
       </c>
     </row>
@@ -1747,13 +1790,13 @@
       <c r="Q20" s="1">
         <v>0.4</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="22">
         <v>2379.6632</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="22">
         <v>411.87970000000001</v>
       </c>
-      <c r="T20" s="26">
+      <c r="T20" s="22">
         <v>136.42340999999999</v>
       </c>
     </row>
@@ -1804,13 +1847,13 @@
       <c r="Q21" s="1">
         <v>0.4</v>
       </c>
-      <c r="R21" s="26">
+      <c r="R21" s="22">
         <v>2305.0974999999999</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="22">
         <v>430.0813</v>
       </c>
-      <c r="T21" s="26">
+      <c r="T21" s="22">
         <v>151.23874000000001</v>
       </c>
     </row>
@@ -1861,13 +1904,13 @@
       <c r="Q22" s="1">
         <v>0.5</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R22" s="22">
         <v>2281.0046000000002</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="22">
         <v>434.32990000000001</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="22">
         <v>60.552340000000001</v>
       </c>
     </row>
@@ -1918,13 +1961,13 @@
       <c r="Q23" s="1">
         <v>0.5</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="22">
         <v>2273.9213</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="22">
         <v>470.66399999999999</v>
       </c>
-      <c r="T23" s="26">
+      <c r="T23" s="22">
         <v>57.35913</v>
       </c>
     </row>
@@ -1975,13 +2018,13 @@
       <c r="Q24" s="1">
         <v>0.5</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24" s="22">
         <v>2269.1500999999998</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="22">
         <v>455.61399999999998</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T24" s="22">
         <v>124.3901</v>
       </c>
     </row>
@@ -2032,13 +2075,13 @@
       <c r="Q25" s="1">
         <v>0.3</v>
       </c>
-      <c r="R25" s="26">
+      <c r="R25" s="22">
         <v>2193.8521000000001</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="22">
         <v>668.47180000000003</v>
       </c>
-      <c r="T25" s="26">
+      <c r="T25" s="22">
         <v>97.307000000000002</v>
       </c>
     </row>
@@ -2089,13 +2132,13 @@
       <c r="Q26" s="1">
         <v>0.2</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="22">
         <v>2179.7894000000001</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="22">
         <v>592.94420000000002</v>
       </c>
-      <c r="T26" s="26">
+      <c r="T26" s="22">
         <v>158.4753</v>
       </c>
     </row>
@@ -2146,13 +2189,13 @@
       <c r="Q27" s="1">
         <v>0.5</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="22">
         <v>2161.4839000000002</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="22">
         <v>432.72190000000001</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="22">
         <v>60.748519999999999</v>
       </c>
     </row>
@@ -2203,13 +2246,13 @@
       <c r="Q28" s="1">
         <v>0.2</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="22">
         <v>2161.1903000000002</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="22">
         <v>595.11659999999995</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="22">
         <v>158.10693000000001</v>
       </c>
     </row>
@@ -2260,13 +2303,13 @@
       <c r="Q29" s="1">
         <v>0.2</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="22">
         <v>2134.1008000000002</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="22">
         <v>600.03150000000005</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="22">
         <v>163.49874</v>
       </c>
     </row>
@@ -2317,13 +2360,13 @@
       <c r="Q30" s="1">
         <v>0.3</v>
       </c>
-      <c r="R30" s="26">
+      <c r="R30" s="22">
         <v>2121.1826999999998</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="22">
         <v>597.02390000000003</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="22">
         <v>131.46504999999999</v>
       </c>
     </row>
@@ -2374,13 +2417,13 @@
       <c r="Q31" s="1">
         <v>0.4</v>
       </c>
-      <c r="R31" s="26">
+      <c r="R31" s="22">
         <v>2114.056</v>
       </c>
-      <c r="S31" s="26">
+      <c r="S31" s="22">
         <v>368.08019999999999</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31" s="22">
         <v>59.850810000000003</v>
       </c>
     </row>
@@ -2431,13 +2474,13 @@
       <c r="Q32" s="1">
         <v>0.3</v>
       </c>
-      <c r="R32" s="26">
+      <c r="R32" s="22">
         <v>2098.5551</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="22">
         <v>645.94550000000004</v>
       </c>
-      <c r="T32" s="26">
+      <c r="T32" s="22">
         <v>78.020769999999999</v>
       </c>
     </row>
@@ -2488,13 +2531,13 @@
       <c r="Q33" s="1">
         <v>0.5</v>
       </c>
-      <c r="R33" s="26">
+      <c r="R33" s="22">
         <v>2096.7159999999999</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="22">
         <v>368.92520000000002</v>
       </c>
-      <c r="T33" s="26">
+      <c r="T33" s="22">
         <v>68.614949999999993</v>
       </c>
     </row>
@@ -2545,13 +2588,13 @@
       <c r="Q34" s="1">
         <v>0.2</v>
       </c>
-      <c r="R34" s="26">
+      <c r="R34" s="22">
         <v>2096.3146999999999</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="22">
         <v>599.15840000000003</v>
       </c>
-      <c r="T34" s="26">
+      <c r="T34" s="22">
         <v>167.77636999999999</v>
       </c>
     </row>
@@ -2602,13 +2645,13 @@
       <c r="Q35" s="1">
         <v>0.3</v>
       </c>
-      <c r="R35" s="26">
+      <c r="R35" s="22">
         <v>2077.8978000000002</v>
       </c>
-      <c r="S35" s="26">
+      <c r="S35" s="22">
         <v>593.81140000000005</v>
       </c>
-      <c r="T35" s="26">
+      <c r="T35" s="22">
         <v>128.16381999999999</v>
       </c>
     </row>
@@ -2659,13 +2702,13 @@
       <c r="Q36" s="1">
         <v>0.4</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="22">
         <v>2056.7143999999998</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="22">
         <v>341.55220000000003</v>
       </c>
-      <c r="T36" s="26">
+      <c r="T36" s="22">
         <v>97.440610000000007</v>
       </c>
     </row>
@@ -2716,13 +2759,13 @@
       <c r="Q37" s="1">
         <v>0.5</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="22">
         <v>2043.4063000000001</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="22">
         <v>368.76190000000003</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="22">
         <v>54.995069999999998</v>
       </c>
     </row>
@@ -2773,13 +2816,13 @@
       <c r="Q38" s="1">
         <v>0.5</v>
       </c>
-      <c r="R38" s="26">
+      <c r="R38" s="22">
         <v>2030.9027000000001</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S38" s="22">
         <v>425.54329999999999</v>
       </c>
-      <c r="T38" s="26">
+      <c r="T38" s="22">
         <v>62.880400000000002</v>
       </c>
     </row>
@@ -2830,13 +2873,13 @@
       <c r="Q39" s="1">
         <v>0.3</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R39" s="22">
         <v>2020.7896000000001</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="22">
         <v>588.13049999999998</v>
       </c>
-      <c r="T39" s="26">
+      <c r="T39" s="22">
         <v>132.66614000000001</v>
       </c>
     </row>
@@ -2887,13 +2930,13 @@
       <c r="Q40" s="1">
         <v>0.4</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="22">
         <v>2016.6677</v>
       </c>
-      <c r="S40" s="26">
+      <c r="S40" s="22">
         <v>373.19990000000001</v>
       </c>
-      <c r="T40" s="26">
+      <c r="T40" s="22">
         <v>51.656239999999997</v>
       </c>
     </row>
@@ -2944,13 +2987,13 @@
       <c r="Q41" s="1">
         <v>0.3</v>
       </c>
-      <c r="R41" s="26">
+      <c r="R41" s="22">
         <v>2014.7467999999999</v>
       </c>
-      <c r="S41" s="26">
+      <c r="S41" s="22">
         <v>623.65620000000001</v>
       </c>
-      <c r="T41" s="26">
+      <c r="T41" s="22">
         <v>69.716309999999993</v>
       </c>
     </row>
@@ -3001,13 +3044,13 @@
       <c r="Q42" s="1">
         <v>0.4</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="22">
         <v>2010.0133000000001</v>
       </c>
-      <c r="S42" s="26">
+      <c r="S42" s="22">
         <v>349.24059999999997</v>
       </c>
-      <c r="T42" s="26">
+      <c r="T42" s="22">
         <v>100.34050999999999</v>
       </c>
     </row>
@@ -3058,13 +3101,13 @@
       <c r="Q43" s="1">
         <v>0.5</v>
       </c>
-      <c r="R43" s="26">
+      <c r="R43" s="22">
         <v>2003.8715999999999</v>
       </c>
-      <c r="S43" s="26">
+      <c r="S43" s="22">
         <v>369.32380000000001</v>
       </c>
-      <c r="T43" s="26">
+      <c r="T43" s="22">
         <v>64.111109999999996</v>
       </c>
     </row>
@@ -3115,13 +3158,13 @@
       <c r="Q44" s="1">
         <v>0.3</v>
       </c>
-      <c r="R44" s="26">
+      <c r="R44" s="22">
         <v>1954.6264000000001</v>
       </c>
-      <c r="S44" s="26">
+      <c r="S44" s="22">
         <v>599.97329999999999</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="22">
         <v>94.55847</v>
       </c>
     </row>
@@ -3172,13 +3215,13 @@
       <c r="Q45" s="1">
         <v>0.4</v>
       </c>
-      <c r="R45" s="26">
+      <c r="R45" s="22">
         <v>1948.2556</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="22">
         <v>363.35239999999999</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T45" s="22">
         <v>113.05067</v>
       </c>
     </row>
@@ -3229,13 +3272,13 @@
       <c r="Q46" s="1">
         <v>0.3</v>
       </c>
-      <c r="R46" s="26">
+      <c r="R46" s="22">
         <v>1946.1431</v>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="22">
         <v>572.38990000000001</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="22">
         <v>136.17153999999999</v>
       </c>
     </row>
@@ -3286,13 +3329,13 @@
       <c r="Q47" s="1">
         <v>0.5</v>
       </c>
-      <c r="R47" s="26">
+      <c r="R47" s="22">
         <v>1932.2452000000001</v>
       </c>
-      <c r="S47" s="26">
+      <c r="S47" s="22">
         <v>366.09109999999998</v>
       </c>
-      <c r="T47" s="26">
+      <c r="T47" s="22">
         <v>44.411740000000002</v>
       </c>
     </row>
@@ -3343,13 +3386,13 @@
       <c r="Q48" s="1">
         <v>0.4</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="22">
         <v>1931.8511000000001</v>
       </c>
-      <c r="S48" s="26">
+      <c r="S48" s="22">
         <v>380.68349999999998</v>
       </c>
-      <c r="T48" s="26">
+      <c r="T48" s="22">
         <v>52.304299999999998</v>
       </c>
     </row>
@@ -3400,13 +3443,13 @@
       <c r="Q49" s="1">
         <v>0.3</v>
       </c>
-      <c r="R49" s="26">
+      <c r="R49" s="22">
         <v>1924.5987</v>
       </c>
-      <c r="S49" s="26">
+      <c r="S49" s="22">
         <v>595.64179999999999</v>
       </c>
-      <c r="T49" s="26">
+      <c r="T49" s="22">
         <v>65.613399999999999</v>
       </c>
     </row>
@@ -3457,13 +3500,13 @@
       <c r="Q50" s="1">
         <v>0.5</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="22">
         <v>1914.7682</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S50" s="22">
         <v>373.61200000000002</v>
       </c>
-      <c r="T50" s="26">
+      <c r="T50" s="22">
         <v>69.909189999999995</v>
       </c>
     </row>
@@ -3514,13 +3557,13 @@
       <c r="Q51" s="1">
         <v>0.4</v>
       </c>
-      <c r="R51" s="26">
+      <c r="R51" s="22">
         <v>1882.1120000000001</v>
       </c>
-      <c r="S51" s="26">
+      <c r="S51" s="22">
         <v>329.06580000000002</v>
       </c>
-      <c r="T51" s="26">
+      <c r="T51" s="22">
         <v>60.244320000000002</v>
       </c>
     </row>
@@ -3571,13 +3614,13 @@
       <c r="Q52" s="1">
         <v>0.3</v>
       </c>
-      <c r="R52" s="26">
+      <c r="R52" s="22">
         <v>1872.1595</v>
       </c>
-      <c r="S52" s="26">
+      <c r="S52" s="22">
         <v>581.59709999999995</v>
       </c>
-      <c r="T52" s="26">
+      <c r="T52" s="22">
         <v>79.681979999999996</v>
       </c>
     </row>
@@ -3628,13 +3671,13 @@
       <c r="Q53" s="1">
         <v>0.4</v>
       </c>
-      <c r="R53" s="26">
+      <c r="R53" s="22">
         <v>1871.4418000000001</v>
       </c>
-      <c r="S53" s="26">
+      <c r="S53" s="22">
         <v>375.31790000000001</v>
       </c>
-      <c r="T53" s="26">
+      <c r="T53" s="22">
         <v>124.06729</v>
       </c>
     </row>
@@ -3685,13 +3728,13 @@
       <c r="Q54" s="1">
         <v>0.4</v>
       </c>
-      <c r="R54" s="26">
+      <c r="R54" s="22">
         <v>1843.0311999999999</v>
       </c>
-      <c r="S54" s="26">
+      <c r="S54" s="22">
         <v>385.7835</v>
       </c>
-      <c r="T54" s="26">
+      <c r="T54" s="22">
         <v>54.903889999999997</v>
       </c>
     </row>
@@ -3742,13 +3785,13 @@
       <c r="Q55" s="1">
         <v>0.5</v>
       </c>
-      <c r="R55" s="26">
+      <c r="R55" s="22">
         <v>1830.8079</v>
       </c>
-      <c r="S55" s="26">
+      <c r="S55" s="22">
         <v>364.47379999999998</v>
       </c>
-      <c r="T55" s="26">
+      <c r="T55" s="22">
         <v>43.158290000000001</v>
       </c>
     </row>
@@ -3799,13 +3842,13 @@
       <c r="Q56" s="1">
         <v>0.5</v>
       </c>
-      <c r="R56" s="26">
+      <c r="R56" s="22">
         <v>1809.7639999999999</v>
       </c>
-      <c r="S56" s="26">
+      <c r="S56" s="22">
         <v>372.29399999999998</v>
       </c>
-      <c r="T56" s="26">
+      <c r="T56" s="22">
         <v>75.605739999999997</v>
       </c>
     </row>
@@ -3856,13 +3899,13 @@
       <c r="Q57" s="1">
         <v>0.3</v>
       </c>
-      <c r="R57" s="26">
+      <c r="R57" s="22">
         <v>1797.748</v>
       </c>
-      <c r="S57" s="26">
+      <c r="S57" s="22">
         <v>562.95830000000001</v>
       </c>
-      <c r="T57" s="26">
+      <c r="T57" s="22">
         <v>73.591830000000002</v>
       </c>
     </row>
@@ -3913,13 +3956,13 @@
       <c r="Q58" s="1">
         <v>0.4</v>
       </c>
-      <c r="R58" s="26">
+      <c r="R58" s="22">
         <v>1797.5064</v>
       </c>
-      <c r="S58" s="26">
+      <c r="S58" s="22">
         <v>334.31259999999997</v>
       </c>
-      <c r="T58" s="26">
+      <c r="T58" s="22">
         <v>55.260660000000001</v>
       </c>
     </row>
@@ -3970,13 +4013,13 @@
       <c r="Q59" s="1">
         <v>0.2</v>
       </c>
-      <c r="R59" s="26">
+      <c r="R59" s="22">
         <v>1796.3142</v>
       </c>
-      <c r="S59" s="26">
+      <c r="S59" s="22">
         <v>581.51189999999997</v>
       </c>
-      <c r="T59" s="26">
+      <c r="T59" s="22">
         <v>87.424040000000005</v>
       </c>
     </row>
@@ -4027,13 +4070,13 @@
       <c r="Q60" s="1">
         <v>0.2</v>
       </c>
-      <c r="R60" s="26">
+      <c r="R60" s="22">
         <v>1784.8409999999999</v>
       </c>
-      <c r="S60" s="26">
+      <c r="S60" s="22">
         <v>529.80290000000002</v>
       </c>
-      <c r="T60" s="26">
+      <c r="T60" s="22">
         <v>134.34210999999999</v>
       </c>
     </row>
@@ -4084,13 +4127,13 @@
       <c r="Q61" s="1">
         <v>0.2</v>
       </c>
-      <c r="R61" s="26">
+      <c r="R61" s="22">
         <v>1760.4844000000001</v>
       </c>
-      <c r="S61" s="26">
+      <c r="S61" s="22">
         <v>530.53599999999994</v>
       </c>
-      <c r="T61" s="26">
+      <c r="T61" s="22">
         <v>131.95075</v>
       </c>
     </row>
@@ -4141,13 +4184,13 @@
       <c r="Q62" s="1">
         <v>0.2</v>
       </c>
-      <c r="R62" s="26">
+      <c r="R62" s="22">
         <v>1741.4679000000001</v>
       </c>
-      <c r="S62" s="26">
+      <c r="S62" s="22">
         <v>571.26099999999997</v>
       </c>
-      <c r="T62" s="26">
+      <c r="T62" s="22">
         <v>73.684209999999993</v>
       </c>
     </row>
@@ -4198,13 +4241,13 @@
       <c r="Q63" s="1">
         <v>0.2</v>
       </c>
-      <c r="R63" s="26">
+      <c r="R63" s="22">
         <v>1729.0101999999999</v>
       </c>
-      <c r="S63" s="26">
+      <c r="S63" s="22">
         <v>531.40650000000005</v>
       </c>
-      <c r="T63" s="26">
+      <c r="T63" s="22">
         <v>134.73794000000001</v>
       </c>
     </row>
@@ -4255,13 +4298,13 @@
       <c r="Q64" s="1">
         <v>0.4</v>
       </c>
-      <c r="R64" s="26">
+      <c r="R64" s="22">
         <v>1722.0213000000001</v>
       </c>
-      <c r="S64" s="26">
+      <c r="S64" s="22">
         <v>341.9282</v>
       </c>
-      <c r="T64" s="26">
+      <c r="T64" s="22">
         <v>57.479509999999998</v>
       </c>
     </row>
@@ -4312,13 +4355,13 @@
       <c r="Q65" s="1">
         <v>0.3</v>
       </c>
-      <c r="R65" s="26">
+      <c r="R65" s="22">
         <v>1721.6993</v>
       </c>
-      <c r="S65" s="26">
+      <c r="S65" s="22">
         <v>505.88369999999998</v>
       </c>
-      <c r="T65" s="26">
+      <c r="T65" s="22">
         <v>92.903850000000006</v>
       </c>
     </row>
@@ -4369,13 +4412,13 @@
       <c r="Q66" s="1">
         <v>0.5</v>
       </c>
-      <c r="R66" s="26">
+      <c r="R66" s="22">
         <v>1721.046</v>
       </c>
-      <c r="S66" s="26">
+      <c r="S66" s="22">
         <v>358.44009999999997</v>
       </c>
-      <c r="T66" s="26">
+      <c r="T66" s="22">
         <v>44.142910000000001</v>
       </c>
     </row>
@@ -4426,13 +4469,13 @@
       <c r="Q67" s="1">
         <v>0.3</v>
       </c>
-      <c r="R67" s="26">
+      <c r="R67" s="22">
         <v>1716.6568</v>
       </c>
-      <c r="S67" s="26">
+      <c r="S67" s="22">
         <v>537.81910000000005</v>
       </c>
-      <c r="T67" s="26">
+      <c r="T67" s="22">
         <v>70.448909999999998</v>
       </c>
     </row>
@@ -4483,13 +4526,13 @@
       <c r="Q68" s="1">
         <v>0.2</v>
       </c>
-      <c r="R68" s="26">
+      <c r="R68" s="22">
         <v>1695.7014999999999</v>
       </c>
-      <c r="S68" s="26">
+      <c r="S68" s="22">
         <v>561.51900000000001</v>
       </c>
-      <c r="T68" s="26">
+      <c r="T68" s="22">
         <v>67.416359999999997</v>
       </c>
     </row>
@@ -4540,13 +4583,13 @@
       <c r="Q69" s="1">
         <v>0.5</v>
       </c>
-      <c r="R69" s="26">
+      <c r="R69" s="22">
         <v>1691.6893</v>
       </c>
-      <c r="S69" s="26">
+      <c r="S69" s="22">
         <v>302.36599999999999</v>
       </c>
-      <c r="T69" s="26">
+      <c r="T69" s="22">
         <v>47.042140000000003</v>
       </c>
     </row>
@@ -4597,13 +4640,13 @@
       <c r="Q70" s="1">
         <v>0.2</v>
       </c>
-      <c r="R70" s="26">
+      <c r="R70" s="22">
         <v>1689.3716999999999</v>
       </c>
-      <c r="S70" s="26">
+      <c r="S70" s="22">
         <v>525.37099999999998</v>
       </c>
-      <c r="T70" s="26">
+      <c r="T70" s="22">
         <v>136.72647000000001</v>
       </c>
     </row>
@@ -4654,13 +4697,13 @@
       <c r="Q71" s="1">
         <v>0.4</v>
       </c>
-      <c r="R71" s="26">
+      <c r="R71" s="22">
         <v>1664.7267999999999</v>
       </c>
-      <c r="S71" s="26">
+      <c r="S71" s="22">
         <v>284.76510000000002</v>
       </c>
-      <c r="T71" s="26">
+      <c r="T71" s="22">
         <v>64.392809999999997</v>
       </c>
     </row>
@@ -4711,13 +4754,13 @@
       <c r="Q72" s="1">
         <v>0.3</v>
       </c>
-      <c r="R72" s="26">
+      <c r="R72" s="22">
         <v>1662.5129999999999</v>
       </c>
-      <c r="S72" s="26">
+      <c r="S72" s="22">
         <v>495.59640000000002</v>
       </c>
-      <c r="T72" s="26">
+      <c r="T72" s="22">
         <v>84.536590000000004</v>
       </c>
     </row>
@@ -4768,13 +4811,13 @@
       <c r="Q73" s="1">
         <v>0.3</v>
       </c>
-      <c r="R73" s="26">
+      <c r="R73" s="22">
         <v>1659.2162000000001</v>
       </c>
-      <c r="S73" s="26">
+      <c r="S73" s="22">
         <v>505.96460000000002</v>
       </c>
-      <c r="T73" s="26">
+      <c r="T73" s="22">
         <v>73.449700000000007</v>
       </c>
     </row>
@@ -4825,13 +4868,13 @@
       <c r="Q74" s="1">
         <v>0.2</v>
       </c>
-      <c r="R74" s="26">
+      <c r="R74" s="22">
         <v>1646.9643000000001</v>
       </c>
-      <c r="S74" s="26">
+      <c r="S74" s="22">
         <v>547.08669999999995</v>
       </c>
-      <c r="T74" s="26">
+      <c r="T74" s="22">
         <v>64.10136</v>
       </c>
     </row>
@@ -4882,13 +4925,13 @@
       <c r="Q75" s="1">
         <v>0.05</v>
       </c>
-      <c r="R75" s="26">
+      <c r="R75" s="22">
         <v>1643.2129</v>
       </c>
-      <c r="S75" s="26">
+      <c r="S75" s="22">
         <v>420.80500000000001</v>
       </c>
-      <c r="T75" s="26">
+      <c r="T75" s="22">
         <v>161.12662</v>
       </c>
     </row>
@@ -4939,13 +4982,13 @@
       <c r="Q76" s="1">
         <v>0.4</v>
       </c>
-      <c r="R76" s="26">
+      <c r="R76" s="22">
         <v>1642.0422000000001</v>
       </c>
-      <c r="S76" s="26">
+      <c r="S76" s="22">
         <v>346.96</v>
       </c>
-      <c r="T76" s="26">
+      <c r="T76" s="22">
         <v>60.634059999999998</v>
       </c>
     </row>
@@ -4996,13 +5039,13 @@
       <c r="Q77" s="1">
         <v>0.05</v>
       </c>
-      <c r="R77" s="26">
+      <c r="R77" s="22">
         <v>1639.9259999999999</v>
       </c>
-      <c r="S77" s="26">
+      <c r="S77" s="22">
         <v>421.99829999999997</v>
       </c>
-      <c r="T77" s="26">
+      <c r="T77" s="22">
         <v>161.85928000000001</v>
       </c>
     </row>
@@ -5053,13 +5096,13 @@
       <c r="Q78" s="1">
         <v>0.05</v>
       </c>
-      <c r="R78" s="26">
+      <c r="R78" s="22">
         <v>1634.8739</v>
       </c>
-      <c r="S78" s="26">
+      <c r="S78" s="22">
         <v>424.51909999999998</v>
       </c>
-      <c r="T78" s="26">
+      <c r="T78" s="22">
         <v>163.89263</v>
       </c>
     </row>
@@ -5110,13 +5153,13 @@
       <c r="Q79" s="1">
         <v>0.05</v>
       </c>
-      <c r="R79" s="26">
+      <c r="R79" s="22">
         <v>1627.9005999999999</v>
       </c>
-      <c r="S79" s="26">
+      <c r="S79" s="22">
         <v>427.53230000000002</v>
       </c>
-      <c r="T79" s="26">
+      <c r="T79" s="22">
         <v>165.82364999999999</v>
       </c>
     </row>
@@ -5167,13 +5210,13 @@
       <c r="Q80" s="1">
         <v>0.3</v>
       </c>
-      <c r="R80" s="26">
+      <c r="R80" s="22">
         <v>1607.143</v>
       </c>
-      <c r="S80" s="26">
+      <c r="S80" s="22">
         <v>485.71210000000002</v>
       </c>
-      <c r="T80" s="26">
+      <c r="T80" s="22">
         <v>83.69211</v>
       </c>
     </row>
@@ -5224,13 +5267,13 @@
       <c r="Q81" s="1">
         <v>0.4</v>
       </c>
-      <c r="R81" s="26">
+      <c r="R81" s="22">
         <v>1603.1782000000001</v>
       </c>
-      <c r="S81" s="26">
+      <c r="S81" s="22">
         <v>289.72910000000002</v>
       </c>
-      <c r="T81" s="26">
+      <c r="T81" s="22">
         <v>62.73554</v>
       </c>
     </row>
@@ -5281,13 +5324,13 @@
       <c r="Q82" s="1">
         <v>0.4</v>
       </c>
-      <c r="R82" s="26">
+      <c r="R82" s="22">
         <v>1598.6826000000001</v>
       </c>
-      <c r="S82" s="26">
+      <c r="S82" s="22">
         <v>278.81009999999998</v>
       </c>
-      <c r="T82" s="26">
+      <c r="T82" s="22">
         <v>45.406410000000001</v>
       </c>
     </row>
@@ -5338,13 +5381,13 @@
       <c r="Q83" s="1">
         <v>0.5</v>
       </c>
-      <c r="R83" s="26">
+      <c r="R83" s="22">
         <v>1598.6392000000001</v>
       </c>
-      <c r="S83" s="26">
+      <c r="S83" s="22">
         <v>299.42700000000002</v>
       </c>
-      <c r="T83" s="26">
+      <c r="T83" s="22">
         <v>38.379240000000003</v>
       </c>
     </row>
@@ -5395,13 +5438,13 @@
       <c r="Q84" s="1">
         <v>0.2</v>
       </c>
-      <c r="R84" s="26">
+      <c r="R84" s="22">
         <v>1598.0804000000001</v>
       </c>
-      <c r="S84" s="26">
+      <c r="S84" s="22">
         <v>520.2835</v>
       </c>
-      <c r="T84" s="26">
+      <c r="T84" s="22">
         <v>86.899690000000007</v>
       </c>
     </row>
@@ -5452,13 +5495,13 @@
       <c r="Q85" s="1">
         <v>0.3</v>
       </c>
-      <c r="R85" s="26">
+      <c r="R85" s="22">
         <v>1588.6822</v>
       </c>
-      <c r="S85" s="26">
+      <c r="S85" s="22">
         <v>490.1345</v>
       </c>
-      <c r="T85" s="26">
+      <c r="T85" s="22">
         <v>59.46358</v>
       </c>
     </row>
@@ -5509,13 +5552,13 @@
       <c r="Q86" s="1">
         <v>0.2</v>
       </c>
-      <c r="R86" s="26">
+      <c r="R86" s="22">
         <v>1550.5219</v>
       </c>
-      <c r="S86" s="26">
+      <c r="S86" s="22">
         <v>512.42790000000002</v>
       </c>
-      <c r="T86" s="26">
+      <c r="T86" s="22">
         <v>76.335729999999998</v>
       </c>
     </row>
@@ -5566,13 +5609,13 @@
       <c r="Q87" s="1">
         <v>0.4</v>
       </c>
-      <c r="R87" s="26">
+      <c r="R87" s="22">
         <v>1545.8034</v>
       </c>
-      <c r="S87" s="26">
+      <c r="S87" s="22">
         <v>299.29160000000002</v>
       </c>
-      <c r="T87" s="26">
+      <c r="T87" s="22">
         <v>68.815060000000003</v>
       </c>
     </row>
@@ -5623,13 +5666,13 @@
       <c r="Q88" s="1">
         <v>0.3</v>
       </c>
-      <c r="R88" s="26">
+      <c r="R88" s="22">
         <v>1542.0856000000001</v>
       </c>
-      <c r="S88" s="26">
+      <c r="S88" s="22">
         <v>468.68340000000001</v>
       </c>
-      <c r="T88" s="26">
+      <c r="T88" s="22">
         <v>83.625839999999997</v>
       </c>
     </row>
@@ -5680,13 +5723,13 @@
       <c r="Q89" s="1">
         <v>0.4</v>
       </c>
-      <c r="R89" s="26">
+      <c r="R89" s="22">
         <v>1526.1867</v>
       </c>
-      <c r="S89" s="26">
+      <c r="S89" s="22">
         <v>283.11709999999999</v>
       </c>
-      <c r="T89" s="26">
+      <c r="T89" s="22">
         <v>39.511719999999997</v>
       </c>
     </row>
@@ -5737,13 +5780,13 @@
       <c r="Q90" s="1">
         <v>0.3</v>
       </c>
-      <c r="R90" s="26">
+      <c r="R90" s="22">
         <v>1525.6115</v>
       </c>
-      <c r="S90" s="26">
+      <c r="S90" s="22">
         <v>474.16359999999997</v>
       </c>
-      <c r="T90" s="26">
+      <c r="T90" s="22">
         <v>53.465470000000003</v>
       </c>
     </row>
@@ -5794,13 +5837,13 @@
       <c r="Q91" s="1">
         <v>0.5</v>
       </c>
-      <c r="R91" s="26">
+      <c r="R91" s="22">
         <v>1514.845</v>
       </c>
-      <c r="S91" s="26">
+      <c r="S91" s="22">
         <v>297.40480000000002</v>
       </c>
-      <c r="T91" s="26">
+      <c r="T91" s="22">
         <v>37.560499999999998</v>
       </c>
     </row>
@@ -5851,13 +5894,13 @@
       <c r="Q92" s="1">
         <v>0.2</v>
       </c>
-      <c r="R92" s="26">
+      <c r="R92" s="22">
         <v>1510.0053</v>
       </c>
-      <c r="S92" s="26">
+      <c r="S92" s="22">
         <v>504.73149999999998</v>
       </c>
-      <c r="T92" s="26">
+      <c r="T92" s="22">
         <v>71.682580000000002</v>
       </c>
     </row>
@@ -5908,13 +5951,13 @@
       <c r="Q93" s="1">
         <v>0.4</v>
       </c>
-      <c r="R93" s="26">
+      <c r="R93" s="22">
         <v>1480.5126</v>
       </c>
-      <c r="S93" s="26">
+      <c r="S93" s="22">
         <v>306.56180000000001</v>
       </c>
-      <c r="T93" s="26">
+      <c r="T93" s="22">
         <v>74.50609</v>
       </c>
     </row>
@@ -5965,13 +6008,13 @@
       <c r="Q94" s="1">
         <v>0.2</v>
       </c>
-      <c r="R94" s="26">
+      <c r="R94" s="22">
         <v>1466.3589999999999</v>
       </c>
-      <c r="S94" s="26">
+      <c r="S94" s="22">
         <v>492.04180000000002</v>
       </c>
-      <c r="T94" s="26">
+      <c r="T94" s="22">
         <v>69.078590000000005</v>
       </c>
     </row>
@@ -6022,13 +6065,13 @@
       <c r="Q95" s="1">
         <v>0.4</v>
       </c>
-      <c r="R95" s="26">
+      <c r="R95" s="22">
         <v>1462.1283000000001</v>
       </c>
-      <c r="S95" s="26">
+      <c r="S95" s="22">
         <v>289.32900000000001</v>
       </c>
-      <c r="T95" s="26">
+      <c r="T95" s="22">
         <v>40.247230000000002</v>
       </c>
     </row>
@@ -6079,13 +6122,13 @@
       <c r="Q96" s="1">
         <v>0.3</v>
       </c>
-      <c r="R96" s="26">
+      <c r="R96" s="22">
         <v>1457.3733999999999</v>
       </c>
-      <c r="S96" s="26">
+      <c r="S96" s="22">
         <v>453.14080000000001</v>
       </c>
-      <c r="T96" s="26">
+      <c r="T96" s="22">
         <v>50.36627</v>
       </c>
     </row>
@@ -6136,13 +6179,13 @@
       <c r="Q97" s="1">
         <v>0.2</v>
       </c>
-      <c r="R97" s="26">
+      <c r="R97" s="22">
         <v>1429.4046000000001</v>
       </c>
-      <c r="S97" s="26">
+      <c r="S97" s="22">
         <v>445.04880000000003</v>
       </c>
-      <c r="T97" s="26">
+      <c r="T97" s="22">
         <v>90.502750000000006</v>
       </c>
     </row>
@@ -6193,13 +6236,13 @@
       <c r="Q98" s="1">
         <v>0.5</v>
       </c>
-      <c r="R98" s="26">
+      <c r="R98" s="22">
         <v>1424.8024</v>
       </c>
-      <c r="S98" s="26">
+      <c r="S98" s="22">
         <v>292.34949999999998</v>
       </c>
-      <c r="T98" s="26">
+      <c r="T98" s="22">
         <v>38.821620000000003</v>
       </c>
     </row>
@@ -6250,13 +6293,13 @@
       <c r="Q99" s="1">
         <v>0.4</v>
       </c>
-      <c r="R99" s="26">
+      <c r="R99" s="22">
         <v>1394.8216</v>
       </c>
-      <c r="S99" s="26">
+      <c r="S99" s="22">
         <v>293.48790000000002</v>
       </c>
-      <c r="T99" s="26">
+      <c r="T99" s="22">
         <v>42.241190000000003</v>
       </c>
     </row>
@@ -6307,13 +6350,13 @@
       <c r="Q100" s="1">
         <v>0.2</v>
       </c>
-      <c r="R100" s="26">
+      <c r="R100" s="22">
         <v>1394.6704999999999</v>
       </c>
-      <c r="S100" s="26">
+      <c r="S100" s="22">
         <v>441.13979999999998</v>
       </c>
-      <c r="T100" s="26">
+      <c r="T100" s="22">
         <v>84.557609999999997</v>
       </c>
     </row>
@@ -6364,13 +6407,13 @@
       <c r="Q101" s="1">
         <v>0.3</v>
       </c>
-      <c r="R101" s="26">
+      <c r="R101" s="22">
         <v>1373.7143000000001</v>
       </c>
-      <c r="S101" s="26">
+      <c r="S101" s="22">
         <v>414.70350000000002</v>
       </c>
-      <c r="T101" s="26">
+      <c r="T101" s="22">
         <v>62.916960000000003</v>
       </c>
     </row>
@@ -6421,13 +6464,13 @@
       <c r="Q102" s="1">
         <v>0.2</v>
       </c>
-      <c r="R102" s="26">
+      <c r="R102" s="22">
         <v>1364.3076000000001</v>
       </c>
-      <c r="S102" s="26">
+      <c r="S102" s="22">
         <v>438.4545</v>
       </c>
-      <c r="T102" s="26">
+      <c r="T102" s="22">
         <v>83.661259999999999</v>
       </c>
     </row>
@@ -6478,13 +6521,13 @@
       <c r="Q103" s="1">
         <v>0.2</v>
       </c>
-      <c r="R103" s="26">
+      <c r="R103" s="22">
         <v>1359.4707000000001</v>
       </c>
-      <c r="S103" s="26">
+      <c r="S103" s="22">
         <v>440.19200000000001</v>
       </c>
-      <c r="T103" s="26">
+      <c r="T103" s="22">
         <v>66.114900000000006</v>
       </c>
     </row>
@@ -6535,13 +6578,13 @@
       <c r="Q104" s="1">
         <v>0.2</v>
       </c>
-      <c r="R104" s="26">
+      <c r="R104" s="22">
         <v>1329.4121</v>
       </c>
-      <c r="S104" s="26">
+      <c r="S104" s="22">
         <v>430.65539999999999</v>
       </c>
-      <c r="T104" s="26">
+      <c r="T104" s="22">
         <v>83.254390000000001</v>
       </c>
     </row>
@@ -6592,13 +6635,13 @@
       <c r="Q105" s="1">
         <v>0.4</v>
       </c>
-      <c r="R105" s="26">
+      <c r="R105" s="22">
         <v>1325.7926</v>
       </c>
-      <c r="S105" s="26">
+      <c r="S105" s="22">
         <v>229.41159999999999</v>
       </c>
-      <c r="T105" s="26">
+      <c r="T105" s="22">
         <v>39.409849999999999</v>
       </c>
     </row>
@@ -6649,13 +6692,13 @@
       <c r="Q106" s="1">
         <v>0.2</v>
       </c>
-      <c r="R106" s="26">
+      <c r="R106" s="22">
         <v>1318.7874999999999</v>
       </c>
-      <c r="S106" s="26">
+      <c r="S106" s="22">
         <v>433.28769999999997</v>
       </c>
-      <c r="T106" s="26">
+      <c r="T106" s="22">
         <v>56.214109999999998</v>
       </c>
     </row>
@@ -6706,13 +6749,13 @@
       <c r="Q107" s="1">
         <v>0.3</v>
       </c>
-      <c r="R107" s="26">
+      <c r="R107" s="22">
         <v>1314.6922</v>
       </c>
-      <c r="S107" s="26">
+      <c r="S107" s="22">
         <v>400.78469999999999</v>
       </c>
-      <c r="T107" s="26">
+      <c r="T107" s="22">
         <v>51.235149999999997</v>
       </c>
     </row>
@@ -6763,13 +6806,13 @@
       <c r="Q108" s="1">
         <v>0.2</v>
       </c>
-      <c r="R108" s="26">
+      <c r="R108" s="22">
         <v>1284.3166000000001</v>
       </c>
-      <c r="S108" s="26">
+      <c r="S108" s="22">
         <v>426.54930000000002</v>
       </c>
-      <c r="T108" s="26">
+      <c r="T108" s="22">
         <v>51.698549999999997</v>
       </c>
     </row>
@@ -6820,13 +6863,13 @@
       <c r="Q109" s="1">
         <v>0.05</v>
       </c>
-      <c r="R109" s="26">
+      <c r="R109" s="22">
         <v>1283.3692000000001</v>
       </c>
-      <c r="S109" s="26">
+      <c r="S109" s="22">
         <v>360.37139999999999</v>
       </c>
-      <c r="T109" s="26">
+      <c r="T109" s="22">
         <v>128.84908999999999</v>
       </c>
     </row>
@@ -6877,13 +6920,13 @@
       <c r="Q110" s="1">
         <v>0.05</v>
       </c>
-      <c r="R110" s="26">
+      <c r="R110" s="22">
         <v>1278.9925000000001</v>
       </c>
-      <c r="S110" s="26">
+      <c r="S110" s="22">
         <v>361.72239999999999</v>
       </c>
-      <c r="T110" s="26">
+      <c r="T110" s="22">
         <v>129.56148999999999</v>
       </c>
     </row>
@@ -6934,13 +6977,13 @@
       <c r="Q111" s="1">
         <v>0.05</v>
       </c>
-      <c r="R111" s="26">
+      <c r="R111" s="22">
         <v>1273.2248999999999</v>
       </c>
-      <c r="S111" s="26">
+      <c r="S111" s="22">
         <v>364.04020000000003</v>
       </c>
-      <c r="T111" s="26">
+      <c r="T111" s="22">
         <v>131.31146000000001</v>
       </c>
     </row>
@@ -6991,13 +7034,13 @@
       <c r="Q112" s="1">
         <v>0.05</v>
       </c>
-      <c r="R112" s="26">
+      <c r="R112" s="22">
         <v>1266.2429999999999</v>
       </c>
-      <c r="S112" s="26">
+      <c r="S112" s="22">
         <v>366.4923</v>
       </c>
-      <c r="T112" s="26">
+      <c r="T112" s="22">
         <v>132.85708</v>
       </c>
     </row>
@@ -7048,13 +7091,13 @@
       <c r="Q113" s="1">
         <v>0.4</v>
       </c>
-      <c r="R113" s="26">
+      <c r="R113" s="22">
         <v>1265.3798999999999</v>
       </c>
-      <c r="S113" s="26">
+      <c r="S113" s="22">
         <v>232.63310000000001</v>
       </c>
-      <c r="T113" s="26">
+      <c r="T113" s="22">
         <v>34.666330000000002</v>
       </c>
     </row>
@@ -7105,13 +7148,13 @@
       <c r="Q114" s="1">
         <v>0.3</v>
       </c>
-      <c r="R114" s="26">
+      <c r="R114" s="22">
         <v>1262.6205</v>
       </c>
-      <c r="S114" s="26">
+      <c r="S114" s="22">
         <v>387.0256</v>
       </c>
-      <c r="T114" s="26">
+      <c r="T114" s="22">
         <v>46.392650000000003</v>
       </c>
     </row>
@@ -7162,13 +7205,13 @@
       <c r="Q115" s="1">
         <v>0.2</v>
       </c>
-      <c r="R115" s="26">
+      <c r="R115" s="22">
         <v>1247.4728</v>
       </c>
-      <c r="S115" s="26">
+      <c r="S115" s="22">
         <v>415.83449999999999</v>
       </c>
-      <c r="T115" s="26">
+      <c r="T115" s="22">
         <v>49.199719999999999</v>
       </c>
     </row>
@@ -7219,13 +7262,13 @@
       <c r="Q116" s="1">
         <v>0.05</v>
       </c>
-      <c r="R116" s="26">
+      <c r="R116" s="22">
         <v>1213.0539000000001</v>
       </c>
-      <c r="S116" s="26">
+      <c r="S116" s="22">
         <v>373.71300000000002</v>
       </c>
-      <c r="T116" s="26">
+      <c r="T116" s="22">
         <v>55.269269999999999</v>
       </c>
     </row>
@@ -7276,13 +7319,13 @@
       <c r="Q117" s="1">
         <v>0.4</v>
       </c>
-      <c r="R117" s="26">
+      <c r="R117" s="22">
         <v>1212.6201000000001</v>
       </c>
-      <c r="S117" s="26">
+      <c r="S117" s="22">
         <v>237.27719999999999</v>
       </c>
-      <c r="T117" s="26">
+      <c r="T117" s="22">
         <v>35.44614</v>
       </c>
     </row>
@@ -7333,13 +7376,13 @@
       <c r="Q118" s="1">
         <v>0.3</v>
       </c>
-      <c r="R118" s="26">
+      <c r="R118" s="22">
         <v>1206.6034</v>
       </c>
-      <c r="S118" s="26">
+      <c r="S118" s="22">
         <v>369.87729999999999</v>
       </c>
-      <c r="T118" s="26">
+      <c r="T118" s="22">
         <v>44.149769999999997</v>
       </c>
     </row>
@@ -7390,13 +7433,13 @@
       <c r="Q119" s="1">
         <v>0.05</v>
       </c>
-      <c r="R119" s="26">
+      <c r="R119" s="22">
         <v>1204.6102000000001</v>
       </c>
-      <c r="S119" s="26">
+      <c r="S119" s="22">
         <v>375.58179999999999</v>
       </c>
-      <c r="T119" s="26">
+      <c r="T119" s="22">
         <v>55.318080000000002</v>
       </c>
     </row>
@@ -7447,13 +7490,13 @@
       <c r="Q120" s="1">
         <v>0.05</v>
       </c>
-      <c r="R120" s="26">
+      <c r="R120" s="22">
         <v>1196.8204000000001</v>
       </c>
-      <c r="S120" s="26">
+      <c r="S120" s="22">
         <v>377.6053</v>
       </c>
-      <c r="T120" s="26">
+      <c r="T120" s="22">
         <v>56.01831</v>
       </c>
     </row>
@@ -7504,13 +7547,13 @@
       <c r="Q121" s="1">
         <v>0.05</v>
       </c>
-      <c r="R121" s="26">
+      <c r="R121" s="22">
         <v>1188.7689</v>
       </c>
-      <c r="S121" s="26">
+      <c r="S121" s="22">
         <v>379.51710000000003</v>
       </c>
-      <c r="T121" s="26">
+      <c r="T121" s="22">
         <v>56.736269999999998</v>
       </c>
     </row>
@@ -7561,13 +7604,13 @@
       <c r="Q122" s="1">
         <v>0.4</v>
       </c>
-      <c r="R122" s="26">
+      <c r="R122" s="22">
         <v>1157.2943</v>
       </c>
-      <c r="S122" s="26">
+      <c r="S122" s="22">
         <v>240.51419999999999</v>
       </c>
-      <c r="T122" s="26">
+      <c r="T122" s="22">
         <v>37.42548</v>
       </c>
     </row>
@@ -7618,13 +7661,13 @@
       <c r="Q123" t="s">
         <v>7</v>
       </c>
-      <c r="R123" s="26">
+      <c r="R123" s="22">
         <v>1135.3514</v>
       </c>
-      <c r="S123" s="26">
+      <c r="S123" s="22">
         <v>390.7174</v>
       </c>
-      <c r="T123" s="26">
+      <c r="T123" s="22">
         <v>57.784089999999999</v>
       </c>
     </row>
@@ -7675,13 +7718,13 @@
       <c r="Q124" s="1">
         <v>0.2</v>
       </c>
-      <c r="R124" s="26">
+      <c r="R124" s="22">
         <v>1126.6186</v>
       </c>
-      <c r="S124" s="26">
+      <c r="S124" s="22">
         <v>361.74400000000003</v>
       </c>
-      <c r="T124" s="26">
+      <c r="T124" s="22">
         <v>57.188639999999999</v>
       </c>
     </row>
@@ -7732,13 +7775,13 @@
       <c r="Q125" s="1">
         <v>0.2</v>
       </c>
-      <c r="R125" s="26">
+      <c r="R125" s="22">
         <v>1092.6445000000001</v>
       </c>
-      <c r="S125" s="26">
+      <c r="S125" s="22">
         <v>355.3963</v>
       </c>
-      <c r="T125" s="26">
+      <c r="T125" s="22">
         <v>48.849530000000001</v>
       </c>
     </row>
@@ -7789,13 +7832,13 @@
       <c r="Q126" s="1">
         <v>0.05</v>
       </c>
-      <c r="R126" s="26">
+      <c r="R126" s="22">
         <v>1077.681</v>
       </c>
-      <c r="S126" s="26">
+      <c r="S126" s="22">
         <v>333.11489999999998</v>
       </c>
-      <c r="T126" s="26">
+      <c r="T126" s="22">
         <v>60.581969999999998</v>
       </c>
     </row>
@@ -7846,13 +7889,13 @@
       <c r="Q127" s="1">
         <v>0.05</v>
       </c>
-      <c r="R127" s="26">
+      <c r="R127" s="22">
         <v>1070.3021000000001</v>
       </c>
-      <c r="S127" s="26">
+      <c r="S127" s="22">
         <v>334.79739999999998</v>
       </c>
-      <c r="T127" s="26">
+      <c r="T127" s="22">
         <v>60.84113</v>
       </c>
     </row>
@@ -7903,13 +7946,13 @@
       <c r="Q128" s="1">
         <v>0.2</v>
       </c>
-      <c r="R128" s="26">
+      <c r="R128" s="22">
         <v>1064.1565000000001</v>
       </c>
-      <c r="S128" s="26">
+      <c r="S128" s="22">
         <v>349.34589999999997</v>
       </c>
-      <c r="T128" s="26">
+      <c r="T128" s="22">
         <v>45.164479999999998</v>
       </c>
     </row>
@@ -7960,13 +8003,13 @@
       <c r="Q129" s="1">
         <v>0.05</v>
       </c>
-      <c r="R129" s="26">
+      <c r="R129" s="22">
         <v>1063.3399999999999</v>
       </c>
-      <c r="S129" s="26">
+      <c r="S129" s="22">
         <v>336.68920000000003</v>
       </c>
-      <c r="T129" s="26">
+      <c r="T129" s="22">
         <v>61.639040000000001</v>
       </c>
     </row>
@@ -8017,13 +8060,13 @@
       <c r="Q130" s="1">
         <v>0.05</v>
       </c>
-      <c r="R130" s="26">
+      <c r="R130" s="22">
         <v>1056.0731000000001</v>
       </c>
-      <c r="S130" s="26">
+      <c r="S130" s="22">
         <v>338.46449999999999</v>
       </c>
-      <c r="T130" s="26">
+      <c r="T130" s="22">
         <v>62.376989999999999</v>
       </c>
     </row>
@@ -8074,13 +8117,13 @@
       <c r="Q131" s="1">
         <v>0.2</v>
       </c>
-      <c r="R131" s="26">
+      <c r="R131" s="22">
         <v>1033.7850000000001</v>
       </c>
-      <c r="S131" s="26">
+      <c r="S131" s="22">
         <v>340.48110000000003</v>
       </c>
-      <c r="T131" s="26">
+      <c r="T131" s="22">
         <v>43.31147</v>
       </c>
     </row>
@@ -8131,13 +8174,13 @@
       <c r="Q132" t="s">
         <v>7</v>
       </c>
-      <c r="R132" s="26">
+      <c r="R132" s="22">
         <v>1008.4475</v>
       </c>
-      <c r="S132" s="26">
+      <c r="S132" s="22">
         <v>348.27190000000002</v>
       </c>
-      <c r="T132" s="26">
+      <c r="T132" s="22">
         <v>63.338520000000003</v>
       </c>
     </row>
@@ -8188,13 +8231,13 @@
       <c r="Q133" s="1">
         <v>0.05</v>
       </c>
-      <c r="R133" s="26">
+      <c r="R133" s="22">
         <v>996.6694</v>
       </c>
-      <c r="S133" s="26">
+      <c r="S133" s="22">
         <v>295.84059999999999</v>
       </c>
-      <c r="T133" s="26">
+      <c r="T133" s="22">
         <v>76.458579999999998</v>
       </c>
     </row>
@@ -8245,13 +8288,13 @@
       <c r="Q134" s="1">
         <v>0.05</v>
       </c>
-      <c r="R134" s="26">
+      <c r="R134" s="22">
         <v>991.39049999999997</v>
       </c>
-      <c r="S134" s="26">
+      <c r="S134" s="22">
         <v>297.15390000000002</v>
       </c>
-      <c r="T134" s="26">
+      <c r="T134" s="22">
         <v>76.788229999999999</v>
       </c>
     </row>
@@ -8302,13 +8345,13 @@
       <c r="Q135" s="1">
         <v>0.05</v>
       </c>
-      <c r="R135" s="26">
+      <c r="R135" s="22">
         <v>986.04300000000001</v>
       </c>
-      <c r="S135" s="26">
+      <c r="S135" s="22">
         <v>298.95190000000002</v>
       </c>
-      <c r="T135" s="26">
+      <c r="T135" s="22">
         <v>77.84066</v>
       </c>
     </row>
@@ -8359,13 +8402,13 @@
       <c r="Q136" s="1">
         <v>0.05</v>
       </c>
-      <c r="R136" s="26">
+      <c r="R136" s="22">
         <v>980.03660000000002</v>
       </c>
-      <c r="S136" s="26">
+      <c r="S136" s="22">
         <v>300.72309999999999</v>
       </c>
-      <c r="T136" s="26">
+      <c r="T136" s="22">
         <v>78.774420000000006</v>
       </c>
     </row>
@@ -8416,13 +8459,13 @@
       <c r="Q137" s="1">
         <v>0.05</v>
       </c>
-      <c r="R137" s="26">
+      <c r="R137" s="22">
         <v>919.99</v>
       </c>
-      <c r="S137" s="26">
+      <c r="S137" s="22">
         <v>283.5009</v>
       </c>
-      <c r="T137" s="26">
+      <c r="T137" s="22">
         <v>42.408059999999999</v>
       </c>
     </row>
@@ -8473,13 +8516,13 @@
       <c r="Q138" s="1">
         <v>0.05</v>
       </c>
-      <c r="R138" s="26">
+      <c r="R138" s="22">
         <v>913.65689999999995</v>
       </c>
-      <c r="S138" s="26">
+      <c r="S138" s="22">
         <v>284.92599999999999</v>
       </c>
-      <c r="T138" s="26">
+      <c r="T138" s="22">
         <v>42.456130000000002</v>
       </c>
     </row>
@@ -8530,13 +8573,13 @@
       <c r="Q139" s="1">
         <v>0.05</v>
       </c>
-      <c r="R139" s="26">
+      <c r="R139" s="22">
         <v>907.75739999999996</v>
       </c>
-      <c r="S139" s="26">
+      <c r="S139" s="22">
         <v>286.5043</v>
       </c>
-      <c r="T139" s="26">
+      <c r="T139" s="22">
         <v>43.006729999999997</v>
       </c>
     </row>
@@ -8587,13 +8630,13 @@
       <c r="Q140" s="1">
         <v>0.05</v>
       </c>
-      <c r="R140" s="26">
+      <c r="R140" s="22">
         <v>901.64880000000005</v>
       </c>
-      <c r="S140" s="26">
+      <c r="S140" s="22">
         <v>287.98700000000002</v>
       </c>
-      <c r="T140" s="26">
+      <c r="T140" s="22">
         <v>43.553460000000001</v>
       </c>
     </row>
@@ -8644,13 +8687,13 @@
       <c r="Q141" t="s">
         <v>7</v>
       </c>
-      <c r="R141" s="26">
+      <c r="R141" s="22">
         <v>861.49590000000001</v>
       </c>
-      <c r="S141" s="26">
+      <c r="S141" s="22">
         <v>296.40050000000002</v>
       </c>
-      <c r="T141" s="26">
+      <c r="T141" s="22">
         <v>44.337679999999999</v>
       </c>
     </row>
@@ -8701,13 +8744,13 @@
       <c r="Q142" s="1">
         <v>0.05</v>
       </c>
-      <c r="R142" s="26">
+      <c r="R142" s="22">
         <v>762.90229999999997</v>
       </c>
-      <c r="S142" s="26">
+      <c r="S142" s="22">
         <v>233.93369999999999</v>
       </c>
-      <c r="T142" s="26">
+      <c r="T142" s="22">
         <v>37.900579999999998</v>
       </c>
     </row>
@@ -8758,13 +8801,13 @@
       <c r="Q143" s="1">
         <v>0.05</v>
       </c>
-      <c r="R143" s="26">
+      <c r="R143" s="22">
         <v>757.64670000000001</v>
       </c>
-      <c r="S143" s="26">
+      <c r="S143" s="22">
         <v>235.0977</v>
       </c>
-      <c r="T143" s="26">
+      <c r="T143" s="22">
         <v>37.967179999999999</v>
       </c>
     </row>
@@ -8815,13 +8858,13 @@
       <c r="Q144" s="1">
         <v>0.05</v>
       </c>
-      <c r="R144" s="26">
+      <c r="R144" s="22">
         <v>752.79849999999999</v>
       </c>
-      <c r="S144" s="26">
+      <c r="S144" s="22">
         <v>236.35290000000001</v>
       </c>
-      <c r="T144" s="26">
+      <c r="T144" s="22">
         <v>38.442529999999998</v>
       </c>
     </row>
@@ -8872,13 +8915,13 @@
       <c r="Q145" s="1">
         <v>0.05</v>
       </c>
-      <c r="R145" s="26">
+      <c r="R145" s="22">
         <v>747.77760000000001</v>
       </c>
-      <c r="S145" s="26">
+      <c r="S145" s="22">
         <v>237.54390000000001</v>
       </c>
-      <c r="T145" s="26">
+      <c r="T145" s="22">
         <v>38.927610000000001</v>
       </c>
     </row>
@@ -8929,13 +8972,13 @@
       <c r="Q146" t="s">
         <v>7</v>
       </c>
-      <c r="R146" s="26">
+      <c r="R146" s="22">
         <v>714.17449999999997</v>
       </c>
-      <c r="S146" s="26">
+      <c r="S146" s="22">
         <v>244.5779</v>
       </c>
-      <c r="T146" s="26">
+      <c r="T146" s="22">
         <v>39.62509</v>
       </c>
     </row>
@@ -9063,11 +9106,2774 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA6950E-D104-4C0F-B9AD-D53A82D0BB2D}">
+  <dimension ref="B2:S50"/>
+  <sheetViews>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1856.63076</v>
+      </c>
+      <c r="F3">
+        <v>88.026385000000005</v>
+      </c>
+      <c r="G3">
+        <v>52.248287900000001</v>
+      </c>
+      <c r="H3">
+        <v>163.52918</v>
+      </c>
+      <c r="I3">
+        <v>22.529427999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.90419857999999997</v>
+      </c>
+      <c r="K3">
+        <v>2037</v>
+      </c>
+      <c r="L3">
+        <v>11.260989</v>
+      </c>
+      <c r="M3">
+        <v>7.1438540000000001</v>
+      </c>
+      <c r="N3">
+        <v>196.26778999999999</v>
+      </c>
+      <c r="O3">
+        <v>194.42819</v>
+      </c>
+      <c r="P3">
+        <v>-1.83959345</v>
+      </c>
+      <c r="Q3">
+        <v>2025</v>
+      </c>
+      <c r="R3">
+        <v>1.83959345</v>
+      </c>
+      <c r="S3">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>1803.6510699999999</v>
+      </c>
+      <c r="F4">
+        <v>94.841864999999999</v>
+      </c>
+      <c r="G4">
+        <v>56.407807900000002</v>
+      </c>
+      <c r="H4">
+        <v>158.86281</v>
+      </c>
+      <c r="I4">
+        <v>24.273779000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.97618241299999997</v>
+      </c>
+      <c r="K4">
+        <v>2036</v>
+      </c>
+      <c r="L4">
+        <v>11.444108</v>
+      </c>
+      <c r="M4">
+        <v>7.2553749999999999</v>
+      </c>
+      <c r="N4">
+        <v>189.87296000000001</v>
+      </c>
+      <c r="O4">
+        <v>187.28433999999999</v>
+      </c>
+      <c r="P4">
+        <v>-2.5886155799999999</v>
+      </c>
+      <c r="Q4">
+        <v>2026</v>
+      </c>
+      <c r="R4">
+        <v>2.5886155799999999</v>
+      </c>
+      <c r="S4">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>1543.86591</v>
+      </c>
+      <c r="F5">
+        <v>87.140997999999996</v>
+      </c>
+      <c r="G5">
+        <v>32.873979200000001</v>
+      </c>
+      <c r="H5">
+        <v>153.09334100000001</v>
+      </c>
+      <c r="I5">
+        <v>25.020963999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.51902035899999999</v>
+      </c>
+      <c r="K5">
+        <v>2035</v>
+      </c>
+      <c r="L5">
+        <v>10.039175</v>
+      </c>
+      <c r="M5">
+        <v>6.5521760000000002</v>
+      </c>
+      <c r="N5">
+        <v>167.15780000000001</v>
+      </c>
+      <c r="O5">
+        <v>164.95547999999999</v>
+      </c>
+      <c r="P5">
+        <v>-2.20232275</v>
+      </c>
+      <c r="Q5">
+        <v>2024</v>
+      </c>
+      <c r="R5">
+        <v>2.20232275</v>
+      </c>
+      <c r="S5">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1473.9384399999999</v>
+      </c>
+      <c r="F6">
+        <v>92.677276000000006</v>
+      </c>
+      <c r="G6">
+        <v>34.627763199999997</v>
+      </c>
+      <c r="H6">
+        <v>146.15916999999999</v>
+      </c>
+      <c r="I6">
+        <v>26.610606000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.54670941799999995</v>
+      </c>
+      <c r="K6">
+        <v>2034</v>
+      </c>
+      <c r="L6">
+        <v>10.221633000000001</v>
+      </c>
+      <c r="M6">
+        <v>6.7129159999999999</v>
+      </c>
+      <c r="N6">
+        <v>159.71812</v>
+      </c>
+      <c r="O6">
+        <v>158.4033</v>
+      </c>
+      <c r="P6">
+        <v>-1.31481504</v>
+      </c>
+      <c r="Q6">
+        <v>2026</v>
+      </c>
+      <c r="R6">
+        <v>1.31481504</v>
+      </c>
+      <c r="S6">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1607.9846</v>
+      </c>
+      <c r="F7">
+        <v>124.549465</v>
+      </c>
+      <c r="G7">
+        <v>92.3463019</v>
+      </c>
+      <c r="H7">
+        <v>141.62880799999999</v>
+      </c>
+      <c r="I7">
+        <v>31.877127000000002</v>
+      </c>
+      <c r="J7">
+        <v>1.598126911</v>
+      </c>
+      <c r="K7">
+        <v>2025</v>
+      </c>
+      <c r="L7">
+        <v>13.836118000000001</v>
+      </c>
+      <c r="M7">
+        <v>9.1338570000000008</v>
+      </c>
+      <c r="N7">
+        <v>99.175560000000004</v>
+      </c>
+      <c r="O7">
+        <v>98.569500000000005</v>
+      </c>
+      <c r="P7">
+        <v>-0.60606316000000005</v>
+      </c>
+      <c r="Q7">
+        <v>2020</v>
+      </c>
+      <c r="R7">
+        <v>0.60606316000000005</v>
+      </c>
+      <c r="S7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1402.21478</v>
+      </c>
+      <c r="F8">
+        <v>88.854803000000004</v>
+      </c>
+      <c r="G8">
+        <v>7.1945725999999999</v>
+      </c>
+      <c r="H8">
+        <v>139.04688400000001</v>
+      </c>
+      <c r="I8">
+        <v>25.513051999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.113589221</v>
+      </c>
+      <c r="K8">
+        <v>2032</v>
+      </c>
+      <c r="L8">
+        <v>9.8256779999999999</v>
+      </c>
+      <c r="M8">
+        <v>7.0827249999999999</v>
+      </c>
+      <c r="N8">
+        <v>144.98490000000001</v>
+      </c>
+      <c r="O8">
+        <v>144.80034000000001</v>
+      </c>
+      <c r="P8">
+        <v>-0.18456618</v>
+      </c>
+      <c r="Q8">
+        <v>2023</v>
+      </c>
+      <c r="R8">
+        <v>0.18456618</v>
+      </c>
+      <c r="S8">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>1568.3291200000001</v>
+      </c>
+      <c r="F9">
+        <v>96.551097999999996</v>
+      </c>
+      <c r="G9">
+        <v>15.0876938</v>
+      </c>
+      <c r="H9">
+        <v>138.13601499999999</v>
+      </c>
+      <c r="I9">
+        <v>24.711238999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.26110465599999999</v>
+      </c>
+      <c r="K9">
+        <v>2031</v>
+      </c>
+      <c r="L9">
+        <v>10.97175</v>
+      </c>
+      <c r="M9">
+        <v>8.0253440000000005</v>
+      </c>
+      <c r="N9">
+        <v>149.85733999999999</v>
+      </c>
+      <c r="O9">
+        <v>149.60263</v>
+      </c>
+      <c r="P9">
+        <v>-0.25470361000000002</v>
+      </c>
+      <c r="Q9">
+        <v>2022</v>
+      </c>
+      <c r="R9">
+        <v>0.25470361000000002</v>
+      </c>
+      <c r="S9">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>977.44956999999999</v>
+      </c>
+      <c r="F10">
+        <v>57.782798</v>
+      </c>
+      <c r="G10">
+        <v>7.4167204</v>
+      </c>
+      <c r="H10">
+        <v>136.864251</v>
+      </c>
+      <c r="I10">
+        <v>23.625515</v>
+      </c>
+      <c r="J10">
+        <v>0.18717231200000001</v>
+      </c>
+      <c r="K10">
+        <v>2032</v>
+      </c>
+      <c r="L10">
+        <v>6.7650050000000004</v>
+      </c>
+      <c r="M10">
+        <v>4.9269660000000002</v>
+      </c>
+      <c r="N10">
+        <v>99.618809999999996</v>
+      </c>
+      <c r="O10">
+        <v>98.054019999999994</v>
+      </c>
+      <c r="P10">
+        <v>-1.56478918</v>
+      </c>
+      <c r="Q10">
+        <v>2022</v>
+      </c>
+      <c r="R10">
+        <v>1.56478918</v>
+      </c>
+      <c r="S10">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>1272.47217</v>
+      </c>
+      <c r="F11">
+        <v>86.052294000000003</v>
+      </c>
+      <c r="G11">
+        <v>-2.7864513</v>
+      </c>
+      <c r="H11">
+        <v>126.18130499999999</v>
+      </c>
+      <c r="I11">
+        <v>24.708362000000001</v>
+      </c>
+      <c r="J11">
+        <v>-4.3992999999999997E-2</v>
+      </c>
+      <c r="K11">
+        <v>2034</v>
+      </c>
+      <c r="L11">
+        <v>9.9109809999999996</v>
+      </c>
+      <c r="M11">
+        <v>6.7129159999999999</v>
+      </c>
+      <c r="N11">
+        <v>159.15091000000001</v>
+      </c>
+      <c r="O11">
+        <v>158.4033</v>
+      </c>
+      <c r="P11">
+        <v>-0.74761051999999995</v>
+      </c>
+      <c r="Q11">
+        <v>2026</v>
+      </c>
+      <c r="R11">
+        <v>0.74761051999999995</v>
+      </c>
+      <c r="S11">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2030</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>1260.6440399999999</v>
+      </c>
+      <c r="F12">
+        <v>107.339997</v>
+      </c>
+      <c r="G12">
+        <v>61.051526600000003</v>
+      </c>
+      <c r="H12">
+        <v>125.00839999999999</v>
+      </c>
+      <c r="I12">
+        <v>30.820741999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.96389259800000004</v>
+      </c>
+      <c r="K12">
+        <v>2024</v>
+      </c>
+      <c r="L12">
+        <v>11.621578</v>
+      </c>
+      <c r="M12">
+        <v>8.6833259999999992</v>
+      </c>
+      <c r="N12">
+        <v>84.299719999999994</v>
+      </c>
+      <c r="O12">
+        <v>82.129109999999997</v>
+      </c>
+      <c r="P12">
+        <v>-2.1706123499999999</v>
+      </c>
+      <c r="Q12">
+        <v>2020</v>
+      </c>
+      <c r="R12">
+        <v>2.1706123499999999</v>
+      </c>
+      <c r="S12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1418.2983200000001</v>
+      </c>
+      <c r="F13">
+        <v>91.723825000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.41451389999999999</v>
+      </c>
+      <c r="H13">
+        <v>124.921533</v>
+      </c>
+      <c r="I13">
+        <v>23.475749</v>
+      </c>
+      <c r="J13">
+        <v>7.1734950000000002E-3</v>
+      </c>
+      <c r="K13">
+        <v>2034</v>
+      </c>
+      <c r="L13">
+        <v>11.009281</v>
+      </c>
+      <c r="M13">
+        <v>7.5222740000000003</v>
+      </c>
+      <c r="N13">
+        <v>174.70744999999999</v>
+      </c>
+      <c r="O13">
+        <v>172.64742000000001</v>
+      </c>
+      <c r="P13">
+        <v>-2.0600335900000002</v>
+      </c>
+      <c r="Q13">
+        <v>2026</v>
+      </c>
+      <c r="R13">
+        <v>2.0600335900000002</v>
+      </c>
+      <c r="S13">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>884.40373999999997</v>
+      </c>
+      <c r="F14">
+        <v>54.845001000000003</v>
+      </c>
+      <c r="G14">
+        <v>-1.2460492999999999</v>
+      </c>
+      <c r="H14">
+        <v>123.835807</v>
+      </c>
+      <c r="I14">
+        <v>22.424344999999999</v>
+      </c>
+      <c r="J14">
+        <v>-3.1445965999999999E-2</v>
+      </c>
+      <c r="K14">
+        <v>2034</v>
+      </c>
+      <c r="L14">
+        <v>6.8277679999999998</v>
+      </c>
+      <c r="M14">
+        <v>4.7364329999999999</v>
+      </c>
+      <c r="N14">
+        <v>108.34275</v>
+      </c>
+      <c r="O14">
+        <v>107.61852</v>
+      </c>
+      <c r="P14">
+        <v>-0.72423466000000003</v>
+      </c>
+      <c r="Q14">
+        <v>2026</v>
+      </c>
+      <c r="R14">
+        <v>0.72423466000000003</v>
+      </c>
+      <c r="S14">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>1400.04261</v>
+      </c>
+      <c r="F15">
+        <v>265.42487799999998</v>
+      </c>
+      <c r="G15">
+        <v>93.307062700000003</v>
+      </c>
+      <c r="H15">
+        <v>123.313598</v>
+      </c>
+      <c r="I15">
+        <v>67.932708000000005</v>
+      </c>
+      <c r="J15">
+        <v>1.6147536490000001</v>
+      </c>
+      <c r="K15">
+        <v>2028</v>
+      </c>
+      <c r="L15">
+        <v>15.012860999999999</v>
+      </c>
+      <c r="M15">
+        <v>8.6069019999999998</v>
+      </c>
+      <c r="N15">
+        <v>129.25488000000001</v>
+      </c>
+      <c r="O15">
+        <v>124.95228</v>
+      </c>
+      <c r="P15">
+        <v>-4.3026015600000003</v>
+      </c>
+      <c r="Q15">
+        <v>2022</v>
+      </c>
+      <c r="R15">
+        <v>4.3026015600000003</v>
+      </c>
+      <c r="S15">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E16">
+        <v>1367.18977</v>
+      </c>
+      <c r="F16">
+        <v>265.08717999999999</v>
+      </c>
+      <c r="G16">
+        <v>92.9261336</v>
+      </c>
+      <c r="H16">
+        <v>120.419971</v>
+      </c>
+      <c r="I16">
+        <v>67.846277999999998</v>
+      </c>
+      <c r="J16">
+        <v>1.608161366</v>
+      </c>
+      <c r="K16">
+        <v>2028</v>
+      </c>
+      <c r="L16">
+        <v>14.62087</v>
+      </c>
+      <c r="M16">
+        <v>8.6069019999999998</v>
+      </c>
+      <c r="N16">
+        <v>125.72958</v>
+      </c>
+      <c r="O16">
+        <v>124.95228</v>
+      </c>
+      <c r="P16">
+        <v>-0.77730357000000005</v>
+      </c>
+      <c r="Q16">
+        <v>2023</v>
+      </c>
+      <c r="R16">
+        <v>0.77730357000000005</v>
+      </c>
+      <c r="S16">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2015</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E17">
+        <v>1112.42769</v>
+      </c>
+      <c r="F17">
+        <v>248.74221499999999</v>
+      </c>
+      <c r="G17">
+        <v>68.126074200000005</v>
+      </c>
+      <c r="H17">
+        <v>110.31092200000001</v>
+      </c>
+      <c r="I17">
+        <v>71.421835999999999</v>
+      </c>
+      <c r="J17">
+        <v>1.0755868420000001</v>
+      </c>
+      <c r="K17">
+        <v>2026</v>
+      </c>
+      <c r="L17">
+        <v>13.511175</v>
+      </c>
+      <c r="M17">
+        <v>8.3774990000000003</v>
+      </c>
+      <c r="N17">
+        <v>103.74044000000001</v>
+      </c>
+      <c r="O17">
+        <v>99.057730000000006</v>
+      </c>
+      <c r="P17">
+        <v>-4.6827143299999996</v>
+      </c>
+      <c r="Q17">
+        <v>2021</v>
+      </c>
+      <c r="R17">
+        <v>4.6827143299999996</v>
+      </c>
+      <c r="S17">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>2030</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E18">
+        <v>1246.7900500000001</v>
+      </c>
+      <c r="F18">
+        <v>257.85446899999999</v>
+      </c>
+      <c r="G18">
+        <v>107.965236</v>
+      </c>
+      <c r="H18">
+        <v>109.815349</v>
+      </c>
+      <c r="I18">
+        <v>65.995142000000001</v>
+      </c>
+      <c r="J18">
+        <v>1.8684251080000001</v>
+      </c>
+      <c r="K18">
+        <v>2025</v>
+      </c>
+      <c r="L18">
+        <v>13.836118000000001</v>
+      </c>
+      <c r="M18">
+        <v>9.1338570000000008</v>
+      </c>
+      <c r="N18">
+        <v>99.175560000000004</v>
+      </c>
+      <c r="O18">
+        <v>98.569500000000005</v>
+      </c>
+      <c r="P18">
+        <v>-0.60606316000000005</v>
+      </c>
+      <c r="Q18">
+        <v>2020</v>
+      </c>
+      <c r="R18">
+        <v>0.60606316000000005</v>
+      </c>
+      <c r="S18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E19">
+        <v>1069.17661</v>
+      </c>
+      <c r="F19">
+        <v>245.53169600000001</v>
+      </c>
+      <c r="G19">
+        <v>64.825012200000003</v>
+      </c>
+      <c r="H19">
+        <v>106.02204399999999</v>
+      </c>
+      <c r="I19">
+        <v>70.499993000000003</v>
+      </c>
+      <c r="J19">
+        <v>1.0234690740000001</v>
+      </c>
+      <c r="K19">
+        <v>2027</v>
+      </c>
+      <c r="L19">
+        <v>13.122509000000001</v>
+      </c>
+      <c r="M19">
+        <v>8.1755169999999993</v>
+      </c>
+      <c r="N19">
+        <v>109.96475</v>
+      </c>
+      <c r="O19">
+        <v>107.23325</v>
+      </c>
+      <c r="P19">
+        <v>-2.7315007599999999</v>
+      </c>
+      <c r="Q19">
+        <v>2023</v>
+      </c>
+      <c r="R19">
+        <v>2.7315007599999999</v>
+      </c>
+      <c r="S19">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>2030</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>1022.3849300000001</v>
+      </c>
+      <c r="F20">
+        <v>77.267841000000004</v>
+      </c>
+      <c r="G20">
+        <v>-0.45822269999999998</v>
+      </c>
+      <c r="H20">
+        <v>101.382071</v>
+      </c>
+      <c r="I20">
+        <v>22.186064999999999</v>
+      </c>
+      <c r="J20">
+        <v>-7.2345040000000001E-3</v>
+      </c>
+      <c r="K20">
+        <v>2040</v>
+      </c>
+      <c r="L20">
+        <v>9.7450930000000007</v>
+      </c>
+      <c r="M20">
+        <v>5.9942989999999998</v>
+      </c>
+      <c r="N20">
+        <v>196.03460999999999</v>
+      </c>
+      <c r="O20">
+        <v>195.88231999999999</v>
+      </c>
+      <c r="P20">
+        <v>-0.15228827</v>
+      </c>
+      <c r="Q20">
+        <v>2035</v>
+      </c>
+      <c r="R20">
+        <v>0.15228827</v>
+      </c>
+      <c r="S20">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>1138.48964</v>
+      </c>
+      <c r="F21">
+        <v>79.942628999999997</v>
+      </c>
+      <c r="G21">
+        <v>-0.42507590000000001</v>
+      </c>
+      <c r="H21">
+        <v>100.276415</v>
+      </c>
+      <c r="I21">
+        <v>20.460476</v>
+      </c>
+      <c r="J21">
+        <v>-7.3562810000000001E-3</v>
+      </c>
+      <c r="K21">
+        <v>2041</v>
+      </c>
+      <c r="L21">
+        <v>10.974368</v>
+      </c>
+      <c r="M21">
+        <v>6.8403850000000004</v>
+      </c>
+      <c r="N21">
+        <v>225.01329999999999</v>
+      </c>
+      <c r="O21">
+        <v>222.17509999999999</v>
+      </c>
+      <c r="P21">
+        <v>-2.8381957999999998</v>
+      </c>
+      <c r="Q21">
+        <v>2035</v>
+      </c>
+      <c r="R21">
+        <v>2.8381957999999998</v>
+      </c>
+      <c r="S21">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2030</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>710.57744000000002</v>
+      </c>
+      <c r="F22">
+        <v>47.769013999999999</v>
+      </c>
+      <c r="G22">
+        <v>-0.80354840000000005</v>
+      </c>
+      <c r="H22">
+        <v>99.496335999999999</v>
+      </c>
+      <c r="I22">
+        <v>19.531203000000001</v>
+      </c>
+      <c r="J22">
+        <v>-2.0278775999999998E-2</v>
+      </c>
+      <c r="K22">
+        <v>2041</v>
+      </c>
+      <c r="L22">
+        <v>6.7994789999999998</v>
+      </c>
+      <c r="M22">
+        <v>4.3197549999999998</v>
+      </c>
+      <c r="N22">
+        <v>139.94721999999999</v>
+      </c>
+      <c r="O22">
+        <v>138.88023999999999</v>
+      </c>
+      <c r="P22">
+        <v>-1.0669751599999999</v>
+      </c>
+      <c r="Q22">
+        <v>2036</v>
+      </c>
+      <c r="R22">
+        <v>1.0669751599999999</v>
+      </c>
+      <c r="S22">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>2015</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E23">
+        <v>945.73725999999999</v>
+      </c>
+      <c r="F23">
+        <v>251.67990499999999</v>
+      </c>
+      <c r="G23">
+        <v>31.2188205</v>
+      </c>
+      <c r="H23">
+        <v>93.781510999999995</v>
+      </c>
+      <c r="I23">
+        <v>72.265339999999995</v>
+      </c>
+      <c r="J23">
+        <v>0.49288841100000003</v>
+      </c>
+      <c r="K23">
+        <v>2023</v>
+      </c>
+      <c r="L23">
+        <v>12.766826</v>
+      </c>
+      <c r="M23">
+        <v>8.7606160000000006</v>
+      </c>
+      <c r="N23">
+        <v>76.506439999999998</v>
+      </c>
+      <c r="O23">
+        <v>73.445790000000002</v>
+      </c>
+      <c r="P23">
+        <v>-3.0606522599999999</v>
+      </c>
+      <c r="Q23">
+        <v>2020</v>
+      </c>
+      <c r="R23">
+        <v>3.0606522599999999</v>
+      </c>
+      <c r="S23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2015</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <v>1057.9958300000001</v>
+      </c>
+      <c r="F24">
+        <v>277.72982000000002</v>
+      </c>
+      <c r="G24">
+        <v>39.521619399999999</v>
+      </c>
+      <c r="H24">
+        <v>93.186644000000001</v>
+      </c>
+      <c r="I24">
+        <v>71.082029000000006</v>
+      </c>
+      <c r="J24">
+        <v>0.68395336100000004</v>
+      </c>
+      <c r="K24">
+        <v>2022</v>
+      </c>
+      <c r="L24">
+        <v>13.330558</v>
+      </c>
+      <c r="M24">
+        <v>9.3623539999999998</v>
+      </c>
+      <c r="N24">
+        <v>70.887169999999998</v>
+      </c>
+      <c r="O24">
+        <v>70.840729999999994</v>
+      </c>
+      <c r="P24">
+        <v>-4.6447660000000002E-2</v>
+      </c>
+      <c r="Q24">
+        <v>2019</v>
+      </c>
+      <c r="R24">
+        <v>4.6447660000000002E-2</v>
+      </c>
+      <c r="S24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>2030</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>937.4819</v>
+      </c>
+      <c r="F25">
+        <v>224.11285799999999</v>
+      </c>
+      <c r="G25">
+        <v>72.8328968</v>
+      </c>
+      <c r="H25">
+        <v>92.962890000000002</v>
+      </c>
+      <c r="I25">
+        <v>64.349959999999996</v>
+      </c>
+      <c r="J25">
+        <v>1.149899011</v>
+      </c>
+      <c r="K25">
+        <v>2024</v>
+      </c>
+      <c r="L25">
+        <v>11.621578</v>
+      </c>
+      <c r="M25">
+        <v>8.6833259999999992</v>
+      </c>
+      <c r="N25">
+        <v>84.299719999999994</v>
+      </c>
+      <c r="O25">
+        <v>82.129109999999997</v>
+      </c>
+      <c r="P25">
+        <v>-2.1706123499999999</v>
+      </c>
+      <c r="Q25">
+        <v>2020</v>
+      </c>
+      <c r="R25">
+        <v>2.1706123499999999</v>
+      </c>
+      <c r="S25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E26">
+        <v>659.22295999999994</v>
+      </c>
+      <c r="F26">
+        <v>170.11007499999999</v>
+      </c>
+      <c r="G26">
+        <v>23.2910538</v>
+      </c>
+      <c r="H26">
+        <v>92.305588</v>
+      </c>
+      <c r="I26">
+        <v>69.552502000000004</v>
+      </c>
+      <c r="J26">
+        <v>0.58778545900000001</v>
+      </c>
+      <c r="K26">
+        <v>2023</v>
+      </c>
+      <c r="L26">
+        <v>8.7379379999999998</v>
+      </c>
+      <c r="M26">
+        <v>5.7912429999999997</v>
+      </c>
+      <c r="N26">
+        <v>52.763170000000002</v>
+      </c>
+      <c r="O26">
+        <v>49.84243</v>
+      </c>
+      <c r="P26">
+        <v>-2.9207463300000001</v>
+      </c>
+      <c r="Q26">
+        <v>2019</v>
+      </c>
+      <c r="R26">
+        <v>2.9207463300000001</v>
+      </c>
+      <c r="S26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E27">
+        <v>863.33262000000002</v>
+      </c>
+      <c r="F27">
+        <v>233.309304</v>
+      </c>
+      <c r="G27">
+        <v>16.342799599999999</v>
+      </c>
+      <c r="H27">
+        <v>85.610073999999997</v>
+      </c>
+      <c r="I27">
+        <v>66.990554000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.25802309000000001</v>
+      </c>
+      <c r="K27">
+        <v>2027</v>
+      </c>
+      <c r="L27">
+        <v>12.511143000000001</v>
+      </c>
+      <c r="M27">
+        <v>8.1755169999999993</v>
+      </c>
+      <c r="N27">
+        <v>109.11846</v>
+      </c>
+      <c r="O27">
+        <v>107.23325</v>
+      </c>
+      <c r="P27">
+        <v>-1.8852186099999999</v>
+      </c>
+      <c r="Q27">
+        <v>2024</v>
+      </c>
+      <c r="R27">
+        <v>1.8852186099999999</v>
+      </c>
+      <c r="S27">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E28">
+        <v>962.76999000000001</v>
+      </c>
+      <c r="F28">
+        <v>255.209945</v>
+      </c>
+      <c r="G28">
+        <v>20.235915899999998</v>
+      </c>
+      <c r="H28">
+        <v>84.799299000000005</v>
+      </c>
+      <c r="I28">
+        <v>65.318303</v>
+      </c>
+      <c r="J28">
+        <v>0.35019877399999999</v>
+      </c>
+      <c r="K28">
+        <v>2027</v>
+      </c>
+      <c r="L28">
+        <v>13.673007</v>
+      </c>
+      <c r="M28">
+        <v>8.7985530000000001</v>
+      </c>
+      <c r="N28">
+        <v>118.92375</v>
+      </c>
+      <c r="O28">
+        <v>116.34538000000001</v>
+      </c>
+      <c r="P28">
+        <v>-2.5783762299999999</v>
+      </c>
+      <c r="Q28">
+        <v>2024</v>
+      </c>
+      <c r="R28">
+        <v>2.5783762299999999</v>
+      </c>
+      <c r="S28">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E29">
+        <v>600.24543000000006</v>
+      </c>
+      <c r="F29">
+        <v>156.19537</v>
+      </c>
+      <c r="G29">
+        <v>11.609579800000001</v>
+      </c>
+      <c r="H29">
+        <v>84.047447000000005</v>
+      </c>
+      <c r="I29">
+        <v>63.863228999999997</v>
+      </c>
+      <c r="J29">
+        <v>0.29298555100000001</v>
+      </c>
+      <c r="K29">
+        <v>2027</v>
+      </c>
+      <c r="L29">
+        <v>8.4581719999999994</v>
+      </c>
+      <c r="M29">
+        <v>5.4806299999999997</v>
+      </c>
+      <c r="N29">
+        <v>73.793670000000006</v>
+      </c>
+      <c r="O29">
+        <v>72.326250000000002</v>
+      </c>
+      <c r="P29">
+        <v>-1.4674107999999999</v>
+      </c>
+      <c r="Q29">
+        <v>2024</v>
+      </c>
+      <c r="R29">
+        <v>1.4674107999999999</v>
+      </c>
+      <c r="S29">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>2030</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E30">
+        <v>707.93129999999996</v>
+      </c>
+      <c r="F30">
+        <v>189.53824900000001</v>
+      </c>
+      <c r="G30">
+        <v>7.1101448999999999</v>
+      </c>
+      <c r="H30">
+        <v>70.200118000000003</v>
+      </c>
+      <c r="I30">
+        <v>54.422485999999999</v>
+      </c>
+      <c r="J30">
+        <v>0.11225626</v>
+      </c>
+      <c r="K30">
+        <v>2036</v>
+      </c>
+      <c r="L30">
+        <v>10.548526000000001</v>
+      </c>
+      <c r="M30">
+        <v>6.4081239999999999</v>
+      </c>
+      <c r="N30">
+        <v>172.51130000000001</v>
+      </c>
+      <c r="O30">
+        <v>171.36359999999999</v>
+      </c>
+      <c r="P30">
+        <v>-1.14769465</v>
+      </c>
+      <c r="Q30">
+        <v>2034</v>
+      </c>
+      <c r="R30">
+        <v>1.14769465</v>
+      </c>
+      <c r="S30">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>2030</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E31">
+        <v>788.92957000000001</v>
+      </c>
+      <c r="F31">
+        <v>204.91419999999999</v>
+      </c>
+      <c r="G31">
+        <v>7.829027</v>
+      </c>
+      <c r="H31">
+        <v>69.487701999999999</v>
+      </c>
+      <c r="I31">
+        <v>52.445636</v>
+      </c>
+      <c r="J31">
+        <v>0.13548760000000001</v>
+      </c>
+      <c r="K31">
+        <v>2036</v>
+      </c>
+      <c r="L31">
+        <v>11.625241000000001</v>
+      </c>
+      <c r="M31">
+        <v>7.2553749999999999</v>
+      </c>
+      <c r="N31">
+        <v>187.98535000000001</v>
+      </c>
+      <c r="O31">
+        <v>187.28433999999999</v>
+      </c>
+      <c r="P31">
+        <v>-0.70101435000000001</v>
+      </c>
+      <c r="Q31">
+        <v>2034</v>
+      </c>
+      <c r="R31">
+        <v>0.70101435000000001</v>
+      </c>
+      <c r="S31">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>2030</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E32">
+        <v>492.22913999999997</v>
+      </c>
+      <c r="F32">
+        <v>125.29291600000001</v>
+      </c>
+      <c r="G32">
+        <v>4.5244992999999996</v>
+      </c>
+      <c r="H32">
+        <v>68.922813000000005</v>
+      </c>
+      <c r="I32">
+        <v>51.228217000000001</v>
+      </c>
+      <c r="J32">
+        <v>0.114182678</v>
+      </c>
+      <c r="K32">
+        <v>2036</v>
+      </c>
+      <c r="L32">
+        <v>7.2265280000000001</v>
+      </c>
+      <c r="M32">
+        <v>4.5768040000000001</v>
+      </c>
+      <c r="N32">
+        <v>117.06582</v>
+      </c>
+      <c r="O32">
+        <v>116.84791</v>
+      </c>
+      <c r="P32">
+        <v>-0.21790849000000001</v>
+      </c>
+      <c r="Q32">
+        <v>2034</v>
+      </c>
+      <c r="R32">
+        <v>0.21790849000000001</v>
+      </c>
+      <c r="S32">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <v>507.86986000000002</v>
+      </c>
+      <c r="F33">
+        <v>30.087688</v>
+      </c>
+      <c r="G33">
+        <v>103.3425373</v>
+      </c>
+      <c r="H33">
+        <v>44.732394999999997</v>
+      </c>
+      <c r="I33">
+        <v>7.700628</v>
+      </c>
+      <c r="J33">
+        <v>1.7884255950000001</v>
+      </c>
+      <c r="K33">
+        <v>2026</v>
+      </c>
+      <c r="L33">
+        <v>13.424548</v>
+      </c>
+      <c r="M33">
+        <v>8.9773270000000007</v>
+      </c>
+      <c r="N33">
+        <v>108.28391000000001</v>
+      </c>
+      <c r="O33">
+        <v>107.54682</v>
+      </c>
+      <c r="P33">
+        <v>-0.73708227000000004</v>
+      </c>
+      <c r="Q33">
+        <v>2021</v>
+      </c>
+      <c r="R33">
+        <v>0.73708227000000004</v>
+      </c>
+      <c r="S33">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E34">
+        <v>504.58260999999999</v>
+      </c>
+      <c r="F34">
+        <v>31.280905000000001</v>
+      </c>
+      <c r="G34">
+        <v>104.0751961</v>
+      </c>
+      <c r="H34">
+        <v>44.442858999999999</v>
+      </c>
+      <c r="I34">
+        <v>8.0060190000000002</v>
+      </c>
+      <c r="J34">
+        <v>1.8011048439999999</v>
+      </c>
+      <c r="K34">
+        <v>2026</v>
+      </c>
+      <c r="L34">
+        <v>13.424548</v>
+      </c>
+      <c r="M34">
+        <v>8.9773270000000007</v>
+      </c>
+      <c r="N34">
+        <v>109.47712</v>
+      </c>
+      <c r="O34">
+        <v>107.54682</v>
+      </c>
+      <c r="P34">
+        <v>-1.93029914</v>
+      </c>
+      <c r="Q34">
+        <v>2021</v>
+      </c>
+      <c r="R34">
+        <v>1.93029914</v>
+      </c>
+      <c r="S34">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>2030</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E35">
+        <v>492.55615999999998</v>
+      </c>
+      <c r="F35">
+        <v>36.814962999999999</v>
+      </c>
+      <c r="G35">
+        <v>108.03956700000001</v>
+      </c>
+      <c r="H35">
+        <v>43.383588000000003</v>
+      </c>
+      <c r="I35">
+        <v>9.4224029999999992</v>
+      </c>
+      <c r="J35">
+        <v>1.869711466</v>
+      </c>
+      <c r="K35">
+        <v>2025</v>
+      </c>
+      <c r="L35">
+        <v>13.836118000000001</v>
+      </c>
+      <c r="M35">
+        <v>9.1338570000000008</v>
+      </c>
+      <c r="N35">
+        <v>99.175560000000004</v>
+      </c>
+      <c r="O35">
+        <v>98.569500000000005</v>
+      </c>
+      <c r="P35">
+        <v>-0.60606316000000005</v>
+      </c>
+      <c r="Q35">
+        <v>2020</v>
+      </c>
+      <c r="R35">
+        <v>0.60606316000000005</v>
+      </c>
+      <c r="S35">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>2015</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E36">
+        <v>274.93112000000002</v>
+      </c>
+      <c r="F36">
+        <v>12.099503</v>
+      </c>
+      <c r="G36">
+        <v>65.510578100000004</v>
+      </c>
+      <c r="H36">
+        <v>27.262810999999999</v>
+      </c>
+      <c r="I36">
+        <v>3.474154</v>
+      </c>
+      <c r="J36">
+        <v>1.034292913</v>
+      </c>
+      <c r="K36">
+        <v>2025</v>
+      </c>
+      <c r="L36">
+        <v>11.18746</v>
+      </c>
+      <c r="M36">
+        <v>8.5511180000000007</v>
+      </c>
+      <c r="N36">
+        <v>91.818389999999994</v>
+      </c>
+      <c r="O36">
+        <v>90.680229999999995</v>
+      </c>
+      <c r="P36">
+        <v>-1.1381599</v>
+      </c>
+      <c r="Q36">
+        <v>2020</v>
+      </c>
+      <c r="R36">
+        <v>1.1381599</v>
+      </c>
+      <c r="S36">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E37">
+        <v>270.55385999999999</v>
+      </c>
+      <c r="F37">
+        <v>13.450493</v>
+      </c>
+      <c r="G37">
+        <v>66.222969300000003</v>
+      </c>
+      <c r="H37">
+        <v>26.828751</v>
+      </c>
+      <c r="I37">
+        <v>3.862066</v>
+      </c>
+      <c r="J37">
+        <v>1.045540275</v>
+      </c>
+      <c r="K37">
+        <v>2025</v>
+      </c>
+      <c r="L37">
+        <v>11.18746</v>
+      </c>
+      <c r="M37">
+        <v>8.5511180000000007</v>
+      </c>
+      <c r="N37">
+        <v>93.169380000000004</v>
+      </c>
+      <c r="O37">
+        <v>90.680229999999995</v>
+      </c>
+      <c r="P37">
+        <v>-2.48914963</v>
+      </c>
+      <c r="Q37">
+        <v>2020</v>
+      </c>
+      <c r="R37">
+        <v>2.48914963</v>
+      </c>
+      <c r="S37">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>2030</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <v>257.80313999999998</v>
+      </c>
+      <c r="F38">
+        <v>18.220330000000001</v>
+      </c>
+      <c r="G38">
+        <v>69.518562399999993</v>
+      </c>
+      <c r="H38">
+        <v>25.564360000000001</v>
+      </c>
+      <c r="I38">
+        <v>5.2316390000000004</v>
+      </c>
+      <c r="J38">
+        <v>1.0975716980000001</v>
+      </c>
+      <c r="K38">
+        <v>2024</v>
+      </c>
+      <c r="L38">
+        <v>11.621578</v>
+      </c>
+      <c r="M38">
+        <v>8.6833259999999992</v>
+      </c>
+      <c r="N38">
+        <v>84.299719999999994</v>
+      </c>
+      <c r="O38">
+        <v>82.129109999999997</v>
+      </c>
+      <c r="P38">
+        <v>-2.1706123499999999</v>
+      </c>
+      <c r="Q38">
+        <v>2020</v>
+      </c>
+      <c r="R38">
+        <v>2.1706123499999999</v>
+      </c>
+      <c r="S38">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>2015</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E39">
+        <v>69.245549999999994</v>
+      </c>
+      <c r="F39">
+        <v>-15.157083</v>
+      </c>
+      <c r="G39">
+        <v>-2.7565445</v>
+      </c>
+      <c r="H39">
+        <v>6.8665500000000002</v>
+      </c>
+      <c r="I39">
+        <v>-4.3520830000000004</v>
+      </c>
+      <c r="J39">
+        <v>-4.3520825999999999E-2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>2015</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E40">
+        <v>77.716300000000004</v>
+      </c>
+      <c r="F40">
+        <v>-17.004342000000001</v>
+      </c>
+      <c r="G40">
+        <v>-2.5148111000000002</v>
+      </c>
+      <c r="H40">
+        <v>6.8451320000000004</v>
+      </c>
+      <c r="I40">
+        <v>-4.3520830000000004</v>
+      </c>
+      <c r="J40">
+        <v>-4.3520825999999999E-2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>57</v>
+      </c>
+      <c r="R40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>2015</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E41">
+        <v>48.736490000000003</v>
+      </c>
+      <c r="F41">
+        <v>-10.644234000000001</v>
+      </c>
+      <c r="G41">
+        <v>-1.7245168</v>
+      </c>
+      <c r="H41">
+        <v>6.8241719999999999</v>
+      </c>
+      <c r="I41">
+        <v>-4.3520830000000004</v>
+      </c>
+      <c r="J41">
+        <v>-4.3520825999999999E-2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E42">
+        <v>61.865729999999999</v>
+      </c>
+      <c r="F42">
+        <v>-13.474551999999999</v>
+      </c>
+      <c r="G42">
+        <v>-2.4973838000000002</v>
+      </c>
+      <c r="H42">
+        <v>6.1347500000000004</v>
+      </c>
+      <c r="I42">
+        <v>-3.8689740000000001</v>
+      </c>
+      <c r="J42">
+        <v>-3.9429148999999997E-2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E43">
+        <v>69.271510000000006</v>
+      </c>
+      <c r="F43">
+        <v>-15.135546</v>
+      </c>
+      <c r="G43">
+        <v>-2.4660091</v>
+      </c>
+      <c r="H43">
+        <v>6.1013279999999996</v>
+      </c>
+      <c r="I43">
+        <v>-3.8737840000000001</v>
+      </c>
+      <c r="J43">
+        <v>-4.2676268000000003E-2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>57</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>2020</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E44">
+        <v>43.480179999999997</v>
+      </c>
+      <c r="F44">
+        <v>-9.4802520000000001</v>
+      </c>
+      <c r="G44">
+        <v>-1.6579168</v>
+      </c>
+      <c r="H44">
+        <v>6.0881730000000003</v>
+      </c>
+      <c r="I44">
+        <v>-3.8761679999999998</v>
+      </c>
+      <c r="J44">
+        <v>-4.1840071999999999E-2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" t="s">
+        <v>57</v>
+      </c>
+      <c r="P44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>57</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>2030</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E45">
+        <v>47.634920000000001</v>
+      </c>
+      <c r="F45">
+        <v>-9.8074379999999994</v>
+      </c>
+      <c r="G45">
+        <v>-0.96152680000000001</v>
+      </c>
+      <c r="H45">
+        <v>4.7235899999999997</v>
+      </c>
+      <c r="I45">
+        <v>-2.8160289999999999</v>
+      </c>
+      <c r="J45">
+        <v>-1.518076E-2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>57</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>2030</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E46">
+        <v>33.6098</v>
+      </c>
+      <c r="F46">
+        <v>-7.0340860000000003</v>
+      </c>
+      <c r="G46">
+        <v>-0.69747910000000002</v>
+      </c>
+      <c r="H46">
+        <v>4.706105</v>
+      </c>
+      <c r="I46">
+        <v>-2.87601</v>
+      </c>
+      <c r="J46">
+        <v>-1.7601954999999999E-2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>57</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>2030</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E47">
+        <v>53.428130000000003</v>
+      </c>
+      <c r="F47">
+        <v>-11.200296</v>
+      </c>
+      <c r="G47">
+        <v>-1.0478171000000001</v>
+      </c>
+      <c r="H47">
+        <v>4.7058679999999997</v>
+      </c>
+      <c r="I47">
+        <v>-2.8665980000000002</v>
+      </c>
+      <c r="J47">
+        <v>-1.8133316E-2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" t="s">
+        <v>57</v>
+      </c>
+      <c r="O47" t="s">
+        <v>57</v>
+      </c>
+      <c r="P47" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>57</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P48" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>57</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" t="s">
+        <v>57</v>
+      </c>
+      <c r="P49" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>57</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>57</v>
+      </c>
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3926BC31-4940-4E57-ACA0-C5A1FAD57972}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9084,36 +11890,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="23" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -10253,16 +13059,16 @@
     </row>
     <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
